--- a/TIPOGRAFIA_3B/input.xlsx
+++ b/TIPOGRAFIA_3B/input.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L\Desktop\Incercari import t3b\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L\Desktop\Incercari import t3b\2022.06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F11AE46-DEBB-49E5-AFC0-850DC36993E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83B7D1F-712C-4344-B95B-58FD46DCC7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="630" windowWidth="23100" windowHeight="10050" xr2:uid="{AA05C18D-A666-493F-9C09-4967990A1E2B}"/>
+    <workbookView xWindow="3375" yWindow="1305" windowWidth="28800" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="91">
   <si>
     <t>CodFiscalClient</t>
   </si>
@@ -71,298 +63,241 @@
     <t>Denumire</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>COMPANIA DE LIBRARII S.A.</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Arc</t>
+  </si>
+  <si>
+    <t>Aha Horeca Consulting  Srl</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Trima-Birotica&amp;Papetarie S.R.L.</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Villagio</t>
+  </si>
+  <si>
+    <t>HIGH END RESTAURANT SOLUTIONS SRL - IN INSOLVENTA</t>
+  </si>
+  <si>
+    <t>880</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Diplomat</t>
+  </si>
+  <si>
+    <t>Hotpoint Network SRL</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>COMPANIA DE LIBRARII S.A.</t>
+    <t>39</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>centru</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>CANTA DISTRIBUTIE S.R.L.</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>UPLIFT AIRPORT SERVICES SRL</t>
+  </si>
+  <si>
+    <t>Lily Art Things srl</t>
+  </si>
+  <si>
+    <t>LIBRA OFFICE IND S.R.L.</t>
+  </si>
+  <si>
+    <t>polus</t>
+  </si>
+  <si>
+    <t>International Paper Business Srl</t>
+  </si>
+  <si>
+    <t>iulius</t>
+  </si>
+  <si>
+    <t>Cointreau</t>
+  </si>
+  <si>
+    <t>BDG IMPORT  S.R.L</t>
+  </si>
+  <si>
+    <t>Loft</t>
+  </si>
+  <si>
+    <t>Global Drinks International SRL</t>
+  </si>
+  <si>
+    <t>Thor-LT</t>
+  </si>
+  <si>
+    <t>Forum Film Romania SRL</t>
+  </si>
+  <si>
+    <t>Master ATC Invest SRL</t>
+  </si>
+  <si>
+    <t>Asylum</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Dacia</t>
+  </si>
+  <si>
+    <t>Folder Carpatica Srl</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>MURAD BRAND SRL</t>
+  </si>
+  <si>
+    <t>Ambasada Portugaliei</t>
+  </si>
+  <si>
+    <t>Strategic Events &amp; Communication srl</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Metropolis café</t>
+  </si>
+  <si>
+    <t>Metaxa</t>
+  </si>
+  <si>
+    <t>Jagermeister</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>Evian</t>
+  </si>
+  <si>
+    <t>Nyota</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>Asociatia de Proprietari nr.27 Buftea</t>
+  </si>
+  <si>
+    <t>DEFCON Management SRL</t>
+  </si>
+  <si>
+    <t>Martini</t>
+  </si>
+  <si>
+    <t>Militari</t>
+  </si>
+  <si>
+    <t>91</t>
   </si>
   <si>
     <t>72</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>880</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>polus</t>
-  </si>
-  <si>
-    <t>International Paper Business Srl</t>
-  </si>
-  <si>
-    <t>CENTRU</t>
-  </si>
-  <si>
-    <t>iulius</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Asociatia de Proprietari bl. 8P</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>Asociatia de proprietari Bl. 17</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>URBAN MEDICAL CENTER SRL</t>
-  </si>
-  <si>
-    <t>AFTec Suport SRL</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Avatar</t>
-  </si>
-  <si>
-    <t>Forum Film Romania SRL</t>
-  </si>
-  <si>
-    <t>Asylum</t>
-  </si>
-  <si>
-    <t>Global Drinks International SRL</t>
-  </si>
-  <si>
-    <t>Cointreau</t>
-  </si>
-  <si>
-    <t>BDG IMPORT  S.R.L</t>
-  </si>
-  <si>
-    <t>Bombay Sapphire</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Asociatia de Proprietari bl. D</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>CANTA DISTRIBUTIE S.R.L.</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Centru</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>BOOKINGPEDIA SRL</t>
-  </si>
-  <si>
-    <t>Jagermeister</t>
-  </si>
-  <si>
-    <t>McQueen</t>
-  </si>
-  <si>
-    <t>Master ATC Invest SRL</t>
-  </si>
-  <si>
-    <t>Martini</t>
-  </si>
-  <si>
-    <t>Asociatia de proprietari Bl. G1</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>DEFCON Management SRL</t>
-  </si>
-  <si>
-    <t>STEFI DOR COM SRL</t>
-  </si>
-  <si>
-    <t>Asociatia de Proprietari bl. M132</t>
-  </si>
-  <si>
-    <t>Arc</t>
-  </si>
-  <si>
-    <t>Aha Horeca Consulting  Srl</t>
-  </si>
-  <si>
-    <t>SANCO GRUP S.R.L.</t>
-  </si>
-  <si>
-    <t>DEMIUMA COMIMPEX S.R.L.</t>
-  </si>
-  <si>
-    <t>DER COLOR S.R.L.</t>
-  </si>
-  <si>
-    <t>Dacia</t>
-  </si>
-  <si>
-    <t>Folder Carpatica Srl</t>
-  </si>
-  <si>
-    <t>Pantelimon</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Epoque</t>
-  </si>
-  <si>
-    <t>Dexterity Chef SRL</t>
-  </si>
-  <si>
-    <t>Diplomat</t>
-  </si>
-  <si>
-    <t>Hotpoint Network SRL</t>
-  </si>
-  <si>
-    <t>SEBI MARC SRL</t>
-  </si>
-  <si>
-    <t>Lily Art Things srl</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>HIGH END RESTAURANT SOLUTIONS SRL - IN INSOLVENTA</t>
-  </si>
-  <si>
-    <t>DiMora</t>
-  </si>
-  <si>
-    <t>Lightyear</t>
-  </si>
-  <si>
-    <t>Loft</t>
-  </si>
-  <si>
-    <t>MURAD BRAND SRL</t>
-  </si>
-  <si>
-    <t>Trima-Birotica&amp;Papetarie S.R.L.</t>
-  </si>
-  <si>
-    <t>LIBRACRIS IMPEXCOM SRL</t>
+    <t>GINROX PRODCOM S.R.L.</t>
   </si>
   <si>
     <t>117</t>
   </si>
   <si>
-    <t>centru</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>DUO START S.R.L.</t>
-  </si>
-  <si>
-    <t>COMAR LIBRI SRL</t>
-  </si>
-  <si>
-    <t>Metropolis</t>
-  </si>
-  <si>
-    <t>Delfinului</t>
-  </si>
-  <si>
-    <t>GINROX PRODCOM S.R.L.</t>
-  </si>
-  <si>
-    <t>PLUS PRIME INTERMED SRL</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>PROD COM MARCO T.16 S.R.L.</t>
-  </si>
-  <si>
-    <t>KIWI DIAGNOSTICS SRL</t>
+    <t>VENDOROIL SRL</t>
+  </si>
+  <si>
+    <t>Magenta 2 Prosimpex SRL</t>
+  </si>
+  <si>
+    <t>SC O'La La Eventique SRL</t>
+  </si>
+  <si>
+    <t>Maniu</t>
   </si>
 </sst>
 </file>
@@ -464,7 +399,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{7E88F77C-B8A1-49B7-8791-9FC6EF04A221}"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{B94B2891-5C3F-4DDE-932B-FE7A0E2376DE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,7 +431,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -508,7 +443,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -555,23 +490,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -607,23 +525,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -775,25 +676,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0416DE-D955-489F-976D-D540A8135C75}">
-  <dimension ref="A1:L202"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -837,16 +731,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>23297424</v>
+        <v>361307</v>
       </c>
       <c r="B2" s="2">
-        <v>20220839</v>
+        <v>20221041</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4">
-        <v>44683</v>
+        <v>44713</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -855,74 +749,74 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>336</v>
+        <v>222.39999999999998</v>
       </c>
       <c r="H2" s="2">
-        <v>63.84</v>
+        <v>42.26</v>
       </c>
       <c r="I2" s="2">
-        <v>336</v>
+        <v>222.39999999999998</v>
       </c>
       <c r="J2" s="2">
-        <v>63.84</v>
+        <v>42.26</v>
       </c>
       <c r="K2" s="2">
-        <v>399.84000000000003</v>
+        <v>264.65999999999997</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>13467556</v>
+        <v>361307</v>
       </c>
       <c r="B3" s="2">
-        <v>20220840</v>
+        <v>20221042</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4">
-        <v>44683</v>
+        <v>44713</v>
       </c>
       <c r="E3" s="2">
-        <v>285.34000000000003</v>
+        <v>475</v>
       </c>
       <c r="F3" s="2">
-        <v>54.21</v>
+        <v>90.25</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>15.96</v>
       </c>
       <c r="I3" s="2">
-        <v>285.34000000000003</v>
+        <v>559</v>
       </c>
       <c r="J3" s="2">
-        <v>54.21</v>
+        <v>106.21000000000001</v>
       </c>
       <c r="K3" s="2">
-        <v>339.55</v>
+        <v>665.21</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>361307</v>
+        <v>32543420</v>
       </c>
       <c r="B4" s="2">
-        <v>20220841</v>
+        <v>20221043</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4">
-        <v>44683</v>
+        <v>44713</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -931,60 +825,60 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>452.3</v>
+        <v>300</v>
       </c>
       <c r="H4" s="2">
-        <v>85.94</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2">
-        <v>452.3</v>
+        <v>300</v>
       </c>
       <c r="J4" s="2">
-        <v>85.94</v>
+        <v>57</v>
       </c>
       <c r="K4" s="2">
-        <v>538.24</v>
+        <v>357</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>361307</v>
+        <v>24048685</v>
       </c>
       <c r="B5" s="2">
-        <v>20220842</v>
+        <v>20221044</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="4">
-        <v>44683</v>
+        <v>44714</v>
       </c>
       <c r="E5" s="2">
-        <v>734.75</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>139.6</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>165.3</v>
+        <v>84</v>
       </c>
       <c r="H5" s="2">
-        <v>31.41</v>
+        <v>15.96</v>
       </c>
       <c r="I5" s="2">
-        <v>900.05</v>
+        <v>84</v>
       </c>
       <c r="J5" s="2">
-        <v>171.01</v>
+        <v>15.96</v>
       </c>
       <c r="K5" s="2">
-        <v>1071.06</v>
+        <v>99.960000000000008</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -992,34 +886,34 @@
         <v>361307</v>
       </c>
       <c r="B6" s="2">
-        <v>20220843</v>
+        <v>20221045</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4">
-        <v>44683</v>
+        <v>44714</v>
       </c>
       <c r="E6" s="2">
-        <v>532.5</v>
+        <v>215</v>
       </c>
       <c r="F6" s="2">
-        <v>101.18</v>
+        <v>40.85</v>
       </c>
       <c r="G6" s="2">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>31.35</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>697.5</v>
+        <v>215</v>
       </c>
       <c r="J6" s="2">
-        <v>132.53</v>
+        <v>40.85</v>
       </c>
       <c r="K6" s="2">
-        <v>830.03</v>
+        <v>255.85</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>13</v>
@@ -1030,34 +924,34 @@
         <v>361307</v>
       </c>
       <c r="B7" s="2">
-        <v>20220844</v>
+        <v>20221046</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4">
-        <v>44684</v>
+        <v>44714</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="G7" s="2">
-        <v>518.20000000000005</v>
+        <v>210</v>
       </c>
       <c r="H7" s="2">
-        <v>98.46</v>
+        <v>39.9</v>
       </c>
       <c r="I7" s="2">
-        <v>518.20000000000005</v>
+        <v>320</v>
       </c>
       <c r="J7" s="2">
-        <v>98.46</v>
+        <v>60.8</v>
       </c>
       <c r="K7" s="2">
-        <v>616.66000000000008</v>
+        <v>380.8</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>13</v>
@@ -1068,34 +962,34 @@
         <v>361307</v>
       </c>
       <c r="B8" s="2">
-        <v>20220845</v>
+        <v>20221047</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4">
-        <v>44684</v>
+        <v>44714</v>
       </c>
       <c r="E8" s="2">
-        <v>186</v>
+        <v>430</v>
       </c>
       <c r="F8" s="2">
-        <v>35.340000000000003</v>
+        <v>81.7</v>
       </c>
       <c r="G8" s="2">
-        <v>261.10000000000002</v>
+        <v>244.5</v>
       </c>
       <c r="H8" s="2">
-        <v>49.61</v>
+        <v>46.46</v>
       </c>
       <c r="I8" s="2">
-        <v>447.1</v>
+        <v>674.5</v>
       </c>
       <c r="J8" s="2">
-        <v>84.95</v>
+        <v>128.16</v>
       </c>
       <c r="K8" s="2">
-        <v>532.05000000000007</v>
+        <v>802.66</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>13</v>
@@ -1103,16 +997,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>361307</v>
+        <v>32642106</v>
       </c>
       <c r="B9" s="2">
-        <v>20220846</v>
+        <v>20221048</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4">
-        <v>44684</v>
+        <v>44714</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1121,22 +1015,22 @@
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>514.5</v>
+        <v>99</v>
       </c>
       <c r="H9" s="2">
-        <v>97.76</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="I9" s="2">
-        <v>514.5</v>
+        <v>99</v>
       </c>
       <c r="J9" s="2">
-        <v>97.76</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="K9" s="2">
-        <v>612.26</v>
+        <v>117.81</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1144,34 +1038,34 @@
         <v>361307</v>
       </c>
       <c r="B10" s="2">
-        <v>20220847</v>
+        <v>20221049</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4">
-        <v>44684</v>
+        <v>44714</v>
       </c>
       <c r="E10" s="2">
-        <v>659.75</v>
+        <v>217.49999999999997</v>
       </c>
       <c r="F10" s="2">
-        <v>125.35</v>
+        <v>41.32</v>
       </c>
       <c r="G10" s="2">
-        <v>1666.5</v>
+        <v>398.8</v>
       </c>
       <c r="H10" s="2">
-        <v>316.64</v>
+        <v>75.77</v>
       </c>
       <c r="I10" s="2">
-        <v>2326.25</v>
+        <v>616.29999999999995</v>
       </c>
       <c r="J10" s="2">
-        <v>441.99</v>
+        <v>117.09</v>
       </c>
       <c r="K10" s="2">
-        <v>2768.24</v>
+        <v>733.39</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>13</v>
@@ -1182,34 +1076,34 @@
         <v>361307</v>
       </c>
       <c r="B11" s="2">
-        <v>20220848</v>
+        <v>20221050</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4">
-        <v>44684</v>
+        <v>44714</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>537.5</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>102.12</v>
       </c>
       <c r="G11" s="2">
-        <v>62.6</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>11.89</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>62.6</v>
+        <v>537.5</v>
       </c>
       <c r="J11" s="2">
-        <v>11.89</v>
+        <v>102.12</v>
       </c>
       <c r="K11" s="2">
-        <v>74.490000000000009</v>
+        <v>639.62</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>13</v>
@@ -1217,40 +1111,40 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>13467556</v>
+        <v>28520461</v>
       </c>
       <c r="B12" s="2">
-        <v>20220849</v>
+        <v>20221051</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4">
-        <v>44684</v>
+        <v>44714</v>
       </c>
       <c r="E12" s="2">
-        <v>251.95000000000002</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>47.87</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>8850</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1681.5</v>
       </c>
       <c r="I12" s="2">
-        <v>251.95000000000002</v>
+        <v>8850</v>
       </c>
       <c r="J12" s="2">
-        <v>47.87</v>
+        <v>1681.5</v>
       </c>
       <c r="K12" s="2">
-        <v>299.82</v>
+        <v>10531.5</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1258,34 +1152,34 @@
         <v>361307</v>
       </c>
       <c r="B13" s="2">
-        <v>20220850</v>
+        <v>20221052</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4">
-        <v>44684</v>
+        <v>44715</v>
       </c>
       <c r="E13" s="2">
-        <v>532.5</v>
+        <v>780</v>
       </c>
       <c r="F13" s="2">
-        <v>101.18</v>
+        <v>148.19999999999999</v>
       </c>
       <c r="G13" s="2">
-        <v>512.29999999999995</v>
+        <v>375.6</v>
       </c>
       <c r="H13" s="2">
-        <v>97.34</v>
+        <v>71.36</v>
       </c>
       <c r="I13" s="2">
-        <v>1044.8</v>
+        <v>1155.5999999999999</v>
       </c>
       <c r="J13" s="2">
-        <v>198.52</v>
+        <v>219.56</v>
       </c>
       <c r="K13" s="2">
-        <v>1243.32</v>
+        <v>1375.1599999999999</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>13</v>
@@ -1296,34 +1190,34 @@
         <v>361307</v>
       </c>
       <c r="B14" s="2">
-        <v>20220851</v>
+        <v>20221053</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4">
-        <v>44684</v>
+        <v>44718</v>
       </c>
       <c r="E14" s="2">
-        <v>175</v>
+        <v>713.5</v>
       </c>
       <c r="F14" s="2">
-        <v>33.25</v>
+        <v>135.56</v>
       </c>
       <c r="G14" s="2">
-        <v>390</v>
+        <v>931.9</v>
       </c>
       <c r="H14" s="2">
-        <v>74.099999999999994</v>
+        <v>177.06</v>
       </c>
       <c r="I14" s="2">
-        <v>565</v>
+        <v>1645.4</v>
       </c>
       <c r="J14" s="2">
-        <v>107.35</v>
+        <v>312.62</v>
       </c>
       <c r="K14" s="2">
-        <v>672.35</v>
+        <v>1958.02</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>13</v>
@@ -1334,13 +1228,13 @@
         <v>361307</v>
       </c>
       <c r="B15" s="2">
-        <v>20220852</v>
+        <v>20221054</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D15" s="4">
-        <v>44684</v>
+        <v>44718</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1349,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>54.3</v>
+        <v>228</v>
       </c>
       <c r="H15" s="2">
-        <v>10.32</v>
+        <v>43.32</v>
       </c>
       <c r="I15" s="2">
-        <v>54.3</v>
+        <v>228</v>
       </c>
       <c r="J15" s="2">
-        <v>10.32</v>
+        <v>43.32</v>
       </c>
       <c r="K15" s="2">
-        <v>64.62</v>
+        <v>271.32</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>13</v>
@@ -1372,34 +1266,34 @@
         <v>361307</v>
       </c>
       <c r="B16" s="2">
-        <v>20220853</v>
+        <v>20221055</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D16" s="4">
-        <v>44684</v>
+        <v>44718</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>81.7</v>
       </c>
       <c r="G16" s="2">
-        <v>296.60000000000002</v>
+        <v>706.2</v>
       </c>
       <c r="H16" s="2">
-        <v>56.35</v>
+        <v>134.18</v>
       </c>
       <c r="I16" s="2">
-        <v>296.60000000000002</v>
+        <v>1136.2</v>
       </c>
       <c r="J16" s="2">
-        <v>56.35</v>
+        <v>215.88</v>
       </c>
       <c r="K16" s="2">
-        <v>352.95000000000005</v>
+        <v>1352.08</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>13</v>
@@ -1407,40 +1301,40 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>36318863</v>
+        <v>361307</v>
       </c>
       <c r="B17" s="2">
-        <v>20220854</v>
+        <v>20221056</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D17" s="4">
-        <v>44684</v>
+        <v>44718</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>1023.5</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>194.46</v>
       </c>
       <c r="G17" s="2">
-        <v>1508.8000000000002</v>
+        <v>459.5</v>
       </c>
       <c r="H17" s="2">
-        <v>286.67</v>
+        <v>87.3</v>
       </c>
       <c r="I17" s="2">
-        <v>1508.8000000000002</v>
+        <v>1483</v>
       </c>
       <c r="J17" s="2">
-        <v>286.67</v>
+        <v>281.76</v>
       </c>
       <c r="K17" s="2">
-        <v>1795.4700000000003</v>
+        <v>1764.76</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1448,34 +1342,34 @@
         <v>361307</v>
       </c>
       <c r="B18" s="2">
-        <v>20220855</v>
+        <v>20221057</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4">
-        <v>44684</v>
+        <v>44718</v>
       </c>
       <c r="E18" s="2">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="F18" s="2">
-        <v>0</v>
+        <v>153.9</v>
       </c>
       <c r="G18" s="2">
-        <v>564.5</v>
+        <v>271.5</v>
       </c>
       <c r="H18" s="2">
-        <v>107.26</v>
+        <v>51.58</v>
       </c>
       <c r="I18" s="2">
-        <v>564.5</v>
+        <v>1081.5</v>
       </c>
       <c r="J18" s="2">
-        <v>107.26</v>
+        <v>205.48000000000002</v>
       </c>
       <c r="K18" s="2">
-        <v>671.76</v>
+        <v>1286.98</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>13</v>
@@ -1483,16 +1377,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>4363815</v>
+        <v>361307</v>
       </c>
       <c r="B19" s="2">
-        <v>20220856</v>
+        <v>20221058</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D19" s="4">
-        <v>44684</v>
+        <v>44718</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1501,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>525</v>
+        <v>-142.5</v>
       </c>
       <c r="H19" s="2">
-        <v>99.75</v>
+        <v>-27.08</v>
       </c>
       <c r="I19" s="2">
-        <v>525</v>
+        <v>-142.5</v>
       </c>
       <c r="J19" s="2">
-        <v>99.75</v>
+        <v>-27.08</v>
       </c>
       <c r="K19" s="2">
-        <v>624.75</v>
+        <v>-169.57999999999998</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1524,34 +1418,34 @@
         <v>361307</v>
       </c>
       <c r="B20" s="2">
-        <v>20220857</v>
+        <v>20221059</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D20" s="4">
-        <v>44684</v>
+        <v>44718</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="F20" s="2">
-        <v>0</v>
+        <v>57.76</v>
       </c>
       <c r="G20" s="2">
-        <v>291.3</v>
+        <v>382.5</v>
       </c>
       <c r="H20" s="2">
-        <v>55.35</v>
+        <v>72.680000000000007</v>
       </c>
       <c r="I20" s="2">
-        <v>291.3</v>
+        <v>686.5</v>
       </c>
       <c r="J20" s="2">
-        <v>55.35</v>
+        <v>130.44</v>
       </c>
       <c r="K20" s="2">
-        <v>346.65000000000003</v>
+        <v>816.94</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>13</v>
@@ -1559,116 +1453,116 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>16491613</v>
+        <v>361307</v>
       </c>
       <c r="B21" s="2">
-        <v>20220858</v>
+        <v>20221060</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D21" s="4">
-        <v>44685</v>
+        <v>44719</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="F21" s="2">
-        <v>0</v>
+        <v>-399</v>
       </c>
       <c r="G21" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>200</v>
+        <v>-2100</v>
       </c>
       <c r="J21" s="2">
-        <v>38</v>
+        <v>-399</v>
       </c>
       <c r="K21" s="2">
-        <v>238</v>
+        <v>-2499</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>32543420</v>
+        <v>361307</v>
       </c>
       <c r="B22" s="2">
-        <v>20220859</v>
+        <v>20221061</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="D22" s="4">
-        <v>44685</v>
+        <v>44719</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>204.25</v>
       </c>
       <c r="G22" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2">
-        <v>300</v>
+        <v>1075</v>
       </c>
       <c r="J22" s="2">
-        <v>57</v>
+        <v>204.25</v>
       </c>
       <c r="K22" s="2">
-        <v>357</v>
+        <v>1279.25</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>15215318</v>
+        <v>361307</v>
       </c>
       <c r="B23" s="2">
-        <v>20220860</v>
+        <v>20221062</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D23" s="4">
-        <v>44685</v>
+        <v>44719</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="F23" s="2">
-        <v>0</v>
+        <v>204.25</v>
       </c>
       <c r="G23" s="2">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>31.35</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>165</v>
+        <v>1075</v>
       </c>
       <c r="J23" s="2">
-        <v>31.35</v>
+        <v>204.25</v>
       </c>
       <c r="K23" s="2">
-        <v>196.35</v>
+        <v>1279.25</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1676,13 +1570,13 @@
         <v>361307</v>
       </c>
       <c r="B24" s="2">
-        <v>20220861</v>
+        <v>20221063</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D24" s="4">
-        <v>44685</v>
+        <v>44719</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -1691,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="G24" s="2">
-        <v>240.5</v>
+        <v>280</v>
       </c>
       <c r="H24" s="2">
-        <v>45.7</v>
+        <v>53.2</v>
       </c>
       <c r="I24" s="2">
-        <v>240.5</v>
+        <v>280</v>
       </c>
       <c r="J24" s="2">
-        <v>45.7</v>
+        <v>53.2</v>
       </c>
       <c r="K24" s="2">
-        <v>286.2</v>
+        <v>333.2</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>13</v>
@@ -1714,34 +1608,34 @@
         <v>361307</v>
       </c>
       <c r="B25" s="2">
-        <v>20220862</v>
+        <v>20221064</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D25" s="4">
-        <v>44685</v>
+        <v>44719</v>
       </c>
       <c r="E25" s="2">
-        <v>887.5</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>168.62</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>351.4</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>66.77</v>
       </c>
       <c r="I25" s="2">
-        <v>887.5</v>
+        <v>351.4</v>
       </c>
       <c r="J25" s="2">
-        <v>168.62</v>
+        <v>66.77</v>
       </c>
       <c r="K25" s="2">
-        <v>1056.1199999999999</v>
+        <v>418.16999999999996</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>13</v>
@@ -1749,40 +1643,40 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>13467556</v>
+        <v>361307</v>
       </c>
       <c r="B26" s="2">
-        <v>20220863</v>
+        <v>20221065</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D26" s="4">
-        <v>44685</v>
+        <v>44719</v>
       </c>
       <c r="E26" s="2">
-        <v>-3.24</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>-0.62</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>27.17</v>
       </c>
       <c r="I26" s="2">
-        <v>-3.24</v>
+        <v>143</v>
       </c>
       <c r="J26" s="2">
-        <v>-0.62</v>
+        <v>27.17</v>
       </c>
       <c r="K26" s="2">
-        <v>-3.8600000000000003</v>
+        <v>170.17000000000002</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1790,34 +1684,34 @@
         <v>361307</v>
       </c>
       <c r="B27" s="2">
-        <v>20220864</v>
+        <v>20221066</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D27" s="4">
-        <v>44685</v>
+        <v>44719</v>
       </c>
       <c r="E27" s="2">
-        <v>-59.14</v>
+        <v>365</v>
       </c>
       <c r="F27" s="2">
-        <v>-11.24</v>
+        <v>69.349999999999994</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>77.14</v>
       </c>
       <c r="I27" s="2">
-        <v>-59.14</v>
+        <v>771</v>
       </c>
       <c r="J27" s="2">
-        <v>-11.24</v>
+        <v>146.49</v>
       </c>
       <c r="K27" s="2">
-        <v>-70.38</v>
+        <v>917.49</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>13</v>
@@ -1828,13 +1722,13 @@
         <v>361307</v>
       </c>
       <c r="B28" s="2">
-        <v>20220865</v>
+        <v>20221067</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D28" s="4">
-        <v>44685</v>
+        <v>44719</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -1843,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>432.5</v>
+        <v>-285</v>
       </c>
       <c r="H28" s="2">
-        <v>82.18</v>
+        <v>-54.15</v>
       </c>
       <c r="I28" s="2">
-        <v>432.5</v>
+        <v>-285</v>
       </c>
       <c r="J28" s="2">
-        <v>82.18</v>
+        <v>-54.15</v>
       </c>
       <c r="K28" s="2">
-        <v>514.68000000000006</v>
+        <v>-339.15</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>13</v>
@@ -1863,40 +1757,40 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>4517523</v>
+        <v>24630518</v>
       </c>
       <c r="B29" s="2">
-        <v>20220866</v>
+        <v>20221068</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D29" s="4">
-        <v>44685</v>
+        <v>44719</v>
       </c>
       <c r="E29" s="2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F29" s="2">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G29" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J29" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="K29" s="2">
-        <v>357</v>
+        <v>595</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1904,34 +1798,34 @@
         <v>361307</v>
       </c>
       <c r="B30" s="2">
-        <v>20220867</v>
+        <v>20221069</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D30" s="4">
-        <v>44686</v>
+        <v>44719</v>
       </c>
       <c r="E30" s="2">
-        <v>610</v>
+        <v>979.75</v>
       </c>
       <c r="F30" s="2">
-        <v>115.9</v>
+        <v>186.15</v>
       </c>
       <c r="G30" s="2">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2">
-        <v>59.85</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2">
-        <v>925</v>
+        <v>979.75</v>
       </c>
       <c r="J30" s="2">
-        <v>175.75</v>
+        <v>186.15</v>
       </c>
       <c r="K30" s="2">
-        <v>1100.75</v>
+        <v>1165.9000000000001</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>13</v>
@@ -1939,154 +1833,154 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>25761333</v>
+        <v>361307</v>
       </c>
       <c r="B31" s="2">
-        <v>20220868</v>
+        <v>20221070</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D31" s="4">
-        <v>44686</v>
+        <v>44719</v>
       </c>
       <c r="E31" s="2">
-        <v>6720</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2">
-        <v>1276.8</v>
+        <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>123.31</v>
       </c>
       <c r="I31" s="2">
-        <v>6720</v>
+        <v>649</v>
       </c>
       <c r="J31" s="2">
-        <v>1276.8</v>
+        <v>123.31</v>
       </c>
       <c r="K31" s="2">
-        <v>7996.8</v>
+        <v>772.31</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>25761333</v>
+        <v>361307</v>
       </c>
       <c r="B32" s="2">
-        <v>20220869</v>
+        <v>20221071</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D32" s="4">
-        <v>44686</v>
+        <v>44719</v>
       </c>
       <c r="E32" s="2">
-        <v>3000</v>
+        <v>864</v>
       </c>
       <c r="F32" s="2">
-        <v>570</v>
+        <v>164.16</v>
       </c>
       <c r="G32" s="2">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>43.51</v>
       </c>
       <c r="I32" s="2">
-        <v>3000</v>
+        <v>1093</v>
       </c>
       <c r="J32" s="2">
-        <v>570</v>
+        <v>207.67</v>
       </c>
       <c r="K32" s="2">
-        <v>3570</v>
+        <v>1300.67</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>37570469</v>
+        <v>361307</v>
       </c>
       <c r="B33" s="2">
-        <v>20220870</v>
+        <v>20221072</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="D33" s="4">
-        <v>44686</v>
+        <v>44719</v>
       </c>
       <c r="E33" s="2">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F33" s="2">
-        <v>0</v>
+        <v>48.45</v>
       </c>
       <c r="G33" s="2">
-        <v>899</v>
+        <v>280</v>
       </c>
       <c r="H33" s="2">
-        <v>170.81</v>
+        <v>53.2</v>
       </c>
       <c r="I33" s="2">
-        <v>899</v>
+        <v>535</v>
       </c>
       <c r="J33" s="2">
-        <v>170.81</v>
+        <v>101.65</v>
       </c>
       <c r="K33" s="2">
-        <v>1069.81</v>
+        <v>636.65</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>37570469</v>
+        <v>361307</v>
       </c>
       <c r="B34" s="2">
-        <v>20220871</v>
+        <v>20221073</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="D34" s="4">
-        <v>44686</v>
+        <v>44719</v>
       </c>
       <c r="E34" s="2">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="F34" s="2">
-        <v>0</v>
+        <v>40.85</v>
       </c>
       <c r="G34" s="2">
-        <v>1157</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2">
-        <v>219.83</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2">
-        <v>1157</v>
+        <v>215</v>
       </c>
       <c r="J34" s="2">
-        <v>219.83</v>
+        <v>40.85</v>
       </c>
       <c r="K34" s="2">
-        <v>1376.83</v>
+        <v>255.85</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2094,34 +1988,34 @@
         <v>361307</v>
       </c>
       <c r="B35" s="2">
-        <v>20220872</v>
+        <v>20221074</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D35" s="4">
-        <v>44686</v>
+        <v>44720</v>
       </c>
       <c r="E35" s="2">
-        <v>887.5</v>
+        <v>1285</v>
       </c>
       <c r="F35" s="2">
-        <v>168.62</v>
+        <v>244.15</v>
       </c>
       <c r="G35" s="2">
-        <v>0</v>
+        <v>381.5</v>
       </c>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>72.48</v>
       </c>
       <c r="I35" s="2">
-        <v>887.5</v>
+        <v>1666.5</v>
       </c>
       <c r="J35" s="2">
-        <v>168.62</v>
+        <v>316.63</v>
       </c>
       <c r="K35" s="2">
-        <v>1056.1199999999999</v>
+        <v>1983.13</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>13</v>
@@ -2129,244 +2023,244 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>361307</v>
+        <v>32647456</v>
       </c>
       <c r="B36" s="2">
-        <v>20220873</v>
+        <v>20221075</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D36" s="4">
-        <v>44686</v>
+        <v>44720</v>
       </c>
       <c r="E36" s="2">
-        <v>585.5</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2">
-        <v>111.24</v>
+        <v>0</v>
       </c>
       <c r="G36" s="2">
-        <v>912.6</v>
+        <v>650</v>
       </c>
       <c r="H36" s="2">
-        <v>173.39</v>
+        <v>123.5</v>
       </c>
       <c r="I36" s="2">
-        <v>1498.1</v>
+        <v>650</v>
       </c>
       <c r="J36" s="2">
-        <v>284.63</v>
+        <v>123.5</v>
       </c>
       <c r="K36" s="2">
-        <v>1782.73</v>
+        <v>773.5</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45113301</v>
+        <v>33138388</v>
       </c>
       <c r="B37" s="2">
-        <v>20220874</v>
+        <v>20221076</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D37" s="4">
-        <v>44686</v>
+        <v>44720</v>
       </c>
       <c r="E37" s="2">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="F37" s="2">
-        <v>0</v>
+        <v>49.78</v>
       </c>
       <c r="G37" s="2">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>71.25</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2">
-        <v>375</v>
+        <v>262</v>
       </c>
       <c r="J37" s="2">
-        <v>71.25</v>
+        <v>49.78</v>
       </c>
       <c r="K37" s="2">
-        <v>446.25</v>
+        <v>311.77999999999997</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>43333343</v>
+        <v>26386348</v>
       </c>
       <c r="B38" s="2">
-        <v>20220875</v>
+        <v>20221077</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D38" s="4">
-        <v>44686</v>
+        <v>44720</v>
       </c>
       <c r="E38" s="2">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="F38" s="2">
-        <v>0</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="G38" s="2">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>33.25</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="J38" s="2">
-        <v>33.25</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="K38" s="2">
-        <v>208.25</v>
+        <v>110.67</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>361307</v>
+        <v>13467556</v>
       </c>
       <c r="B39" s="2">
-        <v>20220876</v>
+        <v>20221078</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D39" s="4">
-        <v>44686</v>
+        <v>44720</v>
       </c>
       <c r="E39" s="2">
-        <v>435</v>
+        <v>303.7</v>
       </c>
       <c r="F39" s="2">
-        <v>82.65</v>
+        <v>57.7</v>
       </c>
       <c r="G39" s="2">
-        <v>1733.8</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>329.42</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2">
-        <v>2168.8000000000002</v>
+        <v>303.7</v>
       </c>
       <c r="J39" s="2">
-        <v>412.07000000000005</v>
+        <v>57.7</v>
       </c>
       <c r="K39" s="2">
-        <v>2580.8700000000003</v>
+        <v>361.4</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>28520461</v>
+        <v>13467556</v>
       </c>
       <c r="B40" s="2">
-        <v>20220877</v>
+        <v>20221079</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D40" s="4">
-        <v>44686</v>
+        <v>44720</v>
       </c>
       <c r="E40" s="2">
-        <v>8625</v>
+        <v>303.7</v>
       </c>
       <c r="F40" s="2">
-        <v>1638.75</v>
+        <v>57.7</v>
       </c>
       <c r="G40" s="2">
-        <v>945</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>179.55</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>9570</v>
+        <v>303.7</v>
       </c>
       <c r="J40" s="2">
-        <v>1818.3</v>
+        <v>57.7</v>
       </c>
       <c r="K40" s="2">
-        <v>11388.3</v>
+        <v>361.4</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>28520461</v>
+        <v>15413099</v>
       </c>
       <c r="B41" s="2">
-        <v>20220878</v>
+        <v>20221080</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D41" s="4">
-        <v>44686</v>
+        <v>44720</v>
       </c>
       <c r="E41" s="2">
-        <v>4400</v>
+        <v>37.5</v>
       </c>
       <c r="F41" s="2">
-        <v>836</v>
+        <v>7.12</v>
       </c>
       <c r="G41" s="2">
-        <v>2135</v>
+        <v>852</v>
       </c>
       <c r="H41" s="2">
-        <v>405.65</v>
+        <v>161.88</v>
       </c>
       <c r="I41" s="2">
-        <v>6535</v>
+        <v>889.5</v>
       </c>
       <c r="J41" s="2">
-        <v>1241.6500000000001</v>
+        <v>169</v>
       </c>
       <c r="K41" s="2">
-        <v>7776.65</v>
+        <v>1058.5</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>361307</v>
+        <v>27675131</v>
       </c>
       <c r="B42" s="2">
-        <v>20220879</v>
+        <v>20221081</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D42" s="4">
-        <v>44687</v>
+        <v>44720</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -2375,80 +2269,80 @@
         <v>0</v>
       </c>
       <c r="G42" s="2">
-        <v>-86</v>
+        <v>5220</v>
       </c>
       <c r="H42" s="2">
-        <v>-16.34</v>
+        <v>991.8</v>
       </c>
       <c r="I42" s="2">
-        <v>-86</v>
+        <v>5220</v>
       </c>
       <c r="J42" s="2">
-        <v>-16.34</v>
+        <v>991.8</v>
       </c>
       <c r="K42" s="2">
-        <v>-102.34</v>
+        <v>6211.8</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>361307</v>
+        <v>20752873</v>
       </c>
       <c r="B43" s="2">
-        <v>20220880</v>
+        <v>20221082</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D43" s="4">
-        <v>44687</v>
+        <v>44720</v>
       </c>
       <c r="E43" s="2">
-        <v>435</v>
+        <v>3495</v>
       </c>
       <c r="F43" s="2">
-        <v>82.65</v>
+        <v>664.05</v>
       </c>
       <c r="G43" s="2">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2">
-        <v>50.16</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>699</v>
+        <v>3495</v>
       </c>
       <c r="J43" s="2">
-        <v>132.81</v>
+        <v>664.05</v>
       </c>
       <c r="K43" s="2">
-        <v>831.81</v>
+        <v>4159.05</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>361307</v>
+        <v>43333343</v>
       </c>
       <c r="B44" s="2">
-        <v>20220881</v>
+        <v>20221083</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D44" s="4">
-        <v>44687</v>
+        <v>44720</v>
       </c>
       <c r="E44" s="2">
-        <v>887.5</v>
+        <v>522.5</v>
       </c>
       <c r="F44" s="2">
-        <v>168.62</v>
+        <v>99.28</v>
       </c>
       <c r="G44" s="2">
         <v>0</v>
@@ -2457,54 +2351,54 @@
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <v>887.5</v>
+        <v>522.5</v>
       </c>
       <c r="J44" s="2">
-        <v>168.62</v>
+        <v>99.28</v>
       </c>
       <c r="K44" s="2">
-        <v>1056.1199999999999</v>
+        <v>621.78</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>361307</v>
+        <v>27675131</v>
       </c>
       <c r="B45" s="2">
-        <v>20220882</v>
+        <v>20221084</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D45" s="4">
-        <v>44687</v>
+        <v>44720</v>
       </c>
       <c r="E45" s="2">
-        <v>532.5</v>
+        <v>660</v>
       </c>
       <c r="F45" s="2">
-        <v>101.18</v>
+        <v>125.4</v>
       </c>
       <c r="G45" s="2">
-        <v>483.5</v>
+        <v>1420.5</v>
       </c>
       <c r="H45" s="2">
-        <v>91.86</v>
+        <v>269.89999999999998</v>
       </c>
       <c r="I45" s="2">
-        <v>1016</v>
+        <v>2080.5</v>
       </c>
       <c r="J45" s="2">
-        <v>193.04000000000002</v>
+        <v>395.29999999999995</v>
       </c>
       <c r="K45" s="2">
-        <v>1209.04</v>
+        <v>2475.8000000000002</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2512,13 +2406,13 @@
         <v>361307</v>
       </c>
       <c r="B46" s="2">
-        <v>20220883</v>
+        <v>20221085</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D46" s="4">
-        <v>44687</v>
+        <v>44721</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -2527,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="G46" s="2">
-        <v>146.30000000000001</v>
+        <v>622</v>
       </c>
       <c r="H46" s="2">
-        <v>27.8</v>
+        <v>118.18</v>
       </c>
       <c r="I46" s="2">
-        <v>146.30000000000001</v>
+        <v>622</v>
       </c>
       <c r="J46" s="2">
-        <v>27.8</v>
+        <v>118.18</v>
       </c>
       <c r="K46" s="2">
-        <v>174.10000000000002</v>
+        <v>740.18000000000006</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>13</v>
@@ -2550,34 +2444,34 @@
         <v>361307</v>
       </c>
       <c r="B47" s="2">
-        <v>20220884</v>
+        <v>20221086</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D47" s="4">
-        <v>44687</v>
+        <v>44721</v>
       </c>
       <c r="E47" s="2">
-        <v>622.5</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2">
-        <v>118.28</v>
+        <v>0</v>
       </c>
       <c r="G47" s="2">
-        <v>5209.9000000000005</v>
+        <v>147.49999999999997</v>
       </c>
       <c r="H47" s="2">
-        <v>989.88</v>
+        <v>28.02</v>
       </c>
       <c r="I47" s="2">
-        <v>5832.4000000000005</v>
+        <v>147.49999999999997</v>
       </c>
       <c r="J47" s="2">
-        <v>1108.1600000000001</v>
+        <v>28.02</v>
       </c>
       <c r="K47" s="2">
-        <v>6940.56</v>
+        <v>175.51999999999998</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>13</v>
@@ -2588,34 +2482,34 @@
         <v>361307</v>
       </c>
       <c r="B48" s="2">
-        <v>20220885</v>
+        <v>20221087</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D48" s="4">
-        <v>44687</v>
+        <v>44721</v>
       </c>
       <c r="E48" s="2">
-        <v>327.5</v>
+        <v>215</v>
       </c>
       <c r="F48" s="2">
-        <v>62.23</v>
+        <v>40.85</v>
       </c>
       <c r="G48" s="2">
-        <v>77.5</v>
+        <v>217.5</v>
       </c>
       <c r="H48" s="2">
-        <v>14.72</v>
+        <v>41.32</v>
       </c>
       <c r="I48" s="2">
-        <v>405</v>
+        <v>432.5</v>
       </c>
       <c r="J48" s="2">
-        <v>76.95</v>
+        <v>82.17</v>
       </c>
       <c r="K48" s="2">
-        <v>481.95</v>
+        <v>514.66999999999996</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>13</v>
@@ -2626,34 +2520,34 @@
         <v>361307</v>
       </c>
       <c r="B49" s="2">
-        <v>20220886</v>
+        <v>20221088</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D49" s="4">
-        <v>44690</v>
+        <v>44721</v>
       </c>
       <c r="E49" s="2">
-        <v>0</v>
+        <v>1126</v>
       </c>
       <c r="F49" s="2">
-        <v>0</v>
+        <v>213.94</v>
       </c>
       <c r="G49" s="2">
-        <v>-165</v>
+        <v>181.39999999999998</v>
       </c>
       <c r="H49" s="2">
-        <v>-31.35</v>
+        <v>34.47</v>
       </c>
       <c r="I49" s="2">
-        <v>-165</v>
+        <v>1307.4000000000001</v>
       </c>
       <c r="J49" s="2">
-        <v>-31.35</v>
+        <v>248.41</v>
       </c>
       <c r="K49" s="2">
-        <v>-196.35</v>
+        <v>1555.8100000000002</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>13</v>
@@ -2661,16 +2555,16 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>361307</v>
+        <v>37570469</v>
       </c>
       <c r="B50" s="2">
-        <v>20220887</v>
+        <v>20221089</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D50" s="4">
-        <v>44690</v>
+        <v>44721</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
@@ -2679,22 +2573,22 @@
         <v>0</v>
       </c>
       <c r="G50" s="2">
-        <v>165</v>
+        <v>609</v>
       </c>
       <c r="H50" s="2">
-        <v>31.35</v>
+        <v>115.71</v>
       </c>
       <c r="I50" s="2">
-        <v>165</v>
+        <v>609</v>
       </c>
       <c r="J50" s="2">
-        <v>31.35</v>
+        <v>115.71</v>
       </c>
       <c r="K50" s="2">
-        <v>196.35</v>
+        <v>724.71</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2702,34 +2596,34 @@
         <v>361307</v>
       </c>
       <c r="B51" s="2">
-        <v>20220888</v>
+        <v>20221090</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D51" s="4">
-        <v>44690</v>
+        <v>44721</v>
       </c>
       <c r="E51" s="2">
-        <v>901</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2">
-        <v>171.19</v>
+        <v>0</v>
       </c>
       <c r="G51" s="2">
-        <v>0</v>
+        <v>573.4</v>
       </c>
       <c r="H51" s="2">
-        <v>0</v>
+        <v>108.95</v>
       </c>
       <c r="I51" s="2">
-        <v>901</v>
+        <v>573.4</v>
       </c>
       <c r="J51" s="2">
-        <v>171.19</v>
+        <v>108.95</v>
       </c>
       <c r="K51" s="2">
-        <v>1072.19</v>
+        <v>682.35</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>13</v>
@@ -2740,13 +2634,13 @@
         <v>361307</v>
       </c>
       <c r="B52" s="2">
-        <v>20220889</v>
+        <v>20221091</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D52" s="4">
-        <v>44690</v>
+        <v>44721</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
@@ -2755,19 +2649,19 @@
         <v>0</v>
       </c>
       <c r="G52" s="2">
-        <v>-297.5</v>
+        <v>563</v>
       </c>
       <c r="H52" s="2">
-        <v>-56.53</v>
+        <v>106.97</v>
       </c>
       <c r="I52" s="2">
-        <v>-297.5</v>
+        <v>563</v>
       </c>
       <c r="J52" s="2">
-        <v>-56.53</v>
+        <v>106.97</v>
       </c>
       <c r="K52" s="2">
-        <v>-354.03</v>
+        <v>669.97</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>13</v>
@@ -2775,54 +2669,54 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>13467556</v>
+        <v>361307</v>
       </c>
       <c r="B53" s="2">
-        <v>20220890</v>
+        <v>20221092</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D53" s="4">
-        <v>44691</v>
+        <v>44722</v>
       </c>
       <c r="E53" s="2">
-        <v>593.70000000000005</v>
+        <v>222</v>
       </c>
       <c r="F53" s="2">
-        <v>112.8</v>
+        <v>42.18</v>
       </c>
       <c r="G53" s="2">
-        <v>0</v>
+        <v>463.1</v>
       </c>
       <c r="H53" s="2">
-        <v>0</v>
+        <v>87.99</v>
       </c>
       <c r="I53" s="2">
-        <v>593.70000000000005</v>
+        <v>685.1</v>
       </c>
       <c r="J53" s="2">
-        <v>112.8</v>
+        <v>130.16999999999999</v>
       </c>
       <c r="K53" s="2">
-        <v>706.5</v>
+        <v>815.27</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>15340540</v>
+        <v>32543420</v>
       </c>
       <c r="B54" s="2">
-        <v>20220891</v>
+        <v>20221093</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D54" s="4">
-        <v>44691</v>
+        <v>44726</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
@@ -2831,36 +2725,36 @@
         <v>0</v>
       </c>
       <c r="G54" s="2">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="H54" s="2">
-        <v>142.5</v>
+        <v>57</v>
       </c>
       <c r="I54" s="2">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="J54" s="2">
-        <v>142.5</v>
+        <v>57</v>
       </c>
       <c r="K54" s="2">
-        <v>892.5</v>
+        <v>357</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>361307</v>
+        <v>32468299</v>
       </c>
       <c r="B55" s="2">
-        <v>20220892</v>
+        <v>20221094</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D55" s="4">
-        <v>44691</v>
+        <v>44726</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
@@ -2869,80 +2763,80 @@
         <v>0</v>
       </c>
       <c r="G55" s="2">
-        <v>253.5</v>
+        <v>340</v>
       </c>
       <c r="H55" s="2">
-        <v>48.16</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="I55" s="2">
-        <v>253.5</v>
+        <v>340</v>
       </c>
       <c r="J55" s="2">
-        <v>48.16</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="K55" s="2">
-        <v>301.65999999999997</v>
+        <v>404.6</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>13467556</v>
+        <v>361307</v>
       </c>
       <c r="B56" s="2">
-        <v>20220893</v>
+        <v>20221095</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D56" s="4">
-        <v>44691</v>
+        <v>44726</v>
       </c>
       <c r="E56" s="2">
-        <v>486.82000000000005</v>
+        <v>450</v>
       </c>
       <c r="F56" s="2">
-        <v>92.5</v>
+        <v>85.5</v>
       </c>
       <c r="G56" s="2">
-        <v>0</v>
+        <v>141.20000000000002</v>
       </c>
       <c r="H56" s="2">
-        <v>0</v>
+        <v>26.83</v>
       </c>
       <c r="I56" s="2">
-        <v>486.82000000000005</v>
+        <v>591.20000000000005</v>
       </c>
       <c r="J56" s="2">
-        <v>92.5</v>
+        <v>112.33</v>
       </c>
       <c r="K56" s="2">
-        <v>579.32000000000005</v>
+        <v>703.53000000000009</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>33138388</v>
+        <v>361307</v>
       </c>
       <c r="B57" s="2">
-        <v>20220894</v>
+        <v>20221096</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D57" s="4">
-        <v>44691</v>
+        <v>44726</v>
       </c>
       <c r="E57" s="2">
-        <v>1111</v>
+        <v>322.5</v>
       </c>
       <c r="F57" s="2">
-        <v>211.09</v>
+        <v>61.28</v>
       </c>
       <c r="G57" s="2">
         <v>0</v>
@@ -2951,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="I57" s="2">
-        <v>1111</v>
+        <v>322.5</v>
       </c>
       <c r="J57" s="2">
-        <v>211.09</v>
+        <v>61.28</v>
       </c>
       <c r="K57" s="2">
-        <v>1322.09</v>
+        <v>383.78</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2968,19 +2862,19 @@
         <v>361307</v>
       </c>
       <c r="B58" s="2">
-        <v>20220895</v>
+        <v>20221097</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D58" s="4">
-        <v>44691</v>
+        <v>44726</v>
       </c>
       <c r="E58" s="2">
-        <v>887.5</v>
+        <v>1051</v>
       </c>
       <c r="F58" s="2">
-        <v>168.62</v>
+        <v>199.69</v>
       </c>
       <c r="G58" s="2">
         <v>0</v>
@@ -2989,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="I58" s="2">
-        <v>887.5</v>
+        <v>1051</v>
       </c>
       <c r="J58" s="2">
-        <v>168.62</v>
+        <v>199.69</v>
       </c>
       <c r="K58" s="2">
-        <v>1056.1199999999999</v>
+        <v>1250.69</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>13</v>
@@ -3003,16 +2897,16 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>361307</v>
+        <v>90000000</v>
       </c>
       <c r="B59" s="2">
-        <v>20220896</v>
+        <v>20221098</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="D59" s="4">
-        <v>44691</v>
+        <v>44726</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
@@ -3021,22 +2915,22 @@
         <v>0</v>
       </c>
       <c r="G59" s="2">
-        <v>-92.9</v>
+        <v>145</v>
       </c>
       <c r="H59" s="2">
-        <v>-17.649999999999999</v>
+        <v>27.55</v>
       </c>
       <c r="I59" s="2">
-        <v>-92.9</v>
+        <v>145</v>
       </c>
       <c r="J59" s="2">
-        <v>-17.649999999999999</v>
+        <v>27.55</v>
       </c>
       <c r="K59" s="2">
-        <v>-110.55000000000001</v>
+        <v>172.55</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3044,34 +2938,34 @@
         <v>361307</v>
       </c>
       <c r="B60" s="2">
-        <v>20220897</v>
+        <v>20221099</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D60" s="4">
-        <v>44691</v>
+        <v>44726</v>
       </c>
       <c r="E60" s="2">
-        <v>887.5</v>
+        <v>0</v>
       </c>
       <c r="F60" s="2">
-        <v>168.62</v>
+        <v>0</v>
       </c>
       <c r="G60" s="2">
-        <v>228.6</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="H60" s="2">
-        <v>43.43</v>
+        <v>12.24</v>
       </c>
       <c r="I60" s="2">
-        <v>1116.0999999999999</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="J60" s="2">
-        <v>212.05</v>
+        <v>12.24</v>
       </c>
       <c r="K60" s="2">
-        <v>1328.1499999999999</v>
+        <v>76.64</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>13</v>
@@ -3079,40 +2973,40 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>361307</v>
+        <v>27804864</v>
       </c>
       <c r="B61" s="2">
-        <v>20220898</v>
+        <v>20221100</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D61" s="4">
-        <v>44691</v>
+        <v>44726</v>
       </c>
       <c r="E61" s="2">
-        <v>-88.710000000000008</v>
+        <v>141</v>
       </c>
       <c r="F61" s="2">
-        <v>-16.850000000000001</v>
+        <v>26.79</v>
       </c>
       <c r="G61" s="2">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="H61" s="2">
-        <v>0</v>
+        <v>115.71</v>
       </c>
       <c r="I61" s="2">
-        <v>-88.710000000000008</v>
+        <v>750</v>
       </c>
       <c r="J61" s="2">
-        <v>-16.850000000000001</v>
+        <v>142.5</v>
       </c>
       <c r="K61" s="2">
-        <v>-105.56</v>
+        <v>892.5</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3120,34 +3014,34 @@
         <v>361307</v>
       </c>
       <c r="B62" s="2">
-        <v>20220899</v>
+        <v>20221101</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D62" s="4">
-        <v>44691</v>
+        <v>44726</v>
       </c>
       <c r="E62" s="2">
-        <v>443.75</v>
+        <v>0</v>
       </c>
       <c r="F62" s="2">
-        <v>84.31</v>
+        <v>0</v>
       </c>
       <c r="G62" s="2">
-        <v>550</v>
+        <v>187.5</v>
       </c>
       <c r="H62" s="2">
-        <v>104.5</v>
+        <v>35.619999999999997</v>
       </c>
       <c r="I62" s="2">
-        <v>993.75</v>
+        <v>187.5</v>
       </c>
       <c r="J62" s="2">
-        <v>188.81</v>
+        <v>35.619999999999997</v>
       </c>
       <c r="K62" s="2">
-        <v>1182.56</v>
+        <v>223.12</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>13</v>
@@ -3158,34 +3052,34 @@
         <v>361307</v>
       </c>
       <c r="B63" s="2">
-        <v>20220900</v>
+        <v>20221102</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D63" s="4">
-        <v>44691</v>
+        <v>44727</v>
       </c>
       <c r="E63" s="2">
-        <v>62</v>
+        <v>225</v>
       </c>
       <c r="F63" s="2">
-        <v>11.78</v>
+        <v>42.75</v>
       </c>
       <c r="G63" s="2">
-        <v>504</v>
+        <v>1060.5</v>
       </c>
       <c r="H63" s="2">
-        <v>95.76</v>
+        <v>201.5</v>
       </c>
       <c r="I63" s="2">
-        <v>566</v>
+        <v>1285.5</v>
       </c>
       <c r="J63" s="2">
-        <v>107.54</v>
+        <v>244.25</v>
       </c>
       <c r="K63" s="2">
-        <v>673.54</v>
+        <v>1529.75</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>13</v>
@@ -3193,154 +3087,154 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>32642106</v>
+        <v>24048685</v>
       </c>
       <c r="B64" s="2">
-        <v>20220901</v>
+        <v>20221103</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="D64" s="4">
-        <v>44691</v>
+        <v>44727</v>
       </c>
       <c r="E64" s="2">
-        <v>2220</v>
+        <v>0</v>
       </c>
       <c r="F64" s="2">
-        <v>421.8</v>
+        <v>0</v>
       </c>
       <c r="G64" s="2">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="H64" s="2">
-        <v>0</v>
+        <v>92.53</v>
       </c>
       <c r="I64" s="2">
-        <v>2220</v>
+        <v>487</v>
       </c>
       <c r="J64" s="2">
-        <v>421.8</v>
+        <v>92.53</v>
       </c>
       <c r="K64" s="2">
-        <v>2641.8</v>
+        <v>579.53</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>32642106</v>
+        <v>361307</v>
       </c>
       <c r="B65" s="2">
-        <v>20220902</v>
+        <v>20221104</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D65" s="4">
-        <v>44691</v>
+        <v>44727</v>
       </c>
       <c r="E65" s="2">
-        <v>0</v>
+        <v>1221</v>
       </c>
       <c r="F65" s="2">
-        <v>0</v>
+        <v>231.99</v>
       </c>
       <c r="G65" s="2">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="H65" s="2">
-        <v>53.2</v>
+        <v>0</v>
       </c>
       <c r="I65" s="2">
-        <v>280</v>
+        <v>1221</v>
       </c>
       <c r="J65" s="2">
-        <v>53.2</v>
+        <v>231.99</v>
       </c>
       <c r="K65" s="2">
-        <v>333.2</v>
+        <v>1452.99</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>20752873</v>
+        <v>361307</v>
       </c>
       <c r="B66" s="2">
-        <v>20220903</v>
+        <v>20221105</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D66" s="4">
-        <v>44691</v>
+        <v>44727</v>
       </c>
       <c r="E66" s="2">
-        <v>3557</v>
+        <v>645</v>
       </c>
       <c r="F66" s="2">
-        <v>675.83</v>
+        <v>122.55</v>
       </c>
       <c r="G66" s="2">
-        <v>0</v>
+        <v>716.3</v>
       </c>
       <c r="H66" s="2">
-        <v>0</v>
+        <v>136.1</v>
       </c>
       <c r="I66" s="2">
-        <v>3557</v>
+        <v>1361.3</v>
       </c>
       <c r="J66" s="2">
-        <v>675.83</v>
+        <v>258.64999999999998</v>
       </c>
       <c r="K66" s="2">
-        <v>4232.83</v>
+        <v>1619.9499999999998</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>32642106</v>
+        <v>361307</v>
       </c>
       <c r="B67" s="2">
-        <v>20220904</v>
+        <v>20221106</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="D67" s="4">
-        <v>44691</v>
+        <v>44727</v>
       </c>
       <c r="E67" s="2">
-        <v>127.5</v>
+        <v>0</v>
       </c>
       <c r="F67" s="2">
-        <v>24.22</v>
+        <v>0</v>
       </c>
       <c r="G67" s="2">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="H67" s="2">
-        <v>0</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="I67" s="2">
-        <v>127.5</v>
+        <v>390</v>
       </c>
       <c r="J67" s="2">
-        <v>24.22</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="K67" s="2">
-        <v>151.72</v>
+        <v>464.1</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3348,34 +3242,34 @@
         <v>361307</v>
       </c>
       <c r="B68" s="2">
-        <v>20220905</v>
+        <v>20221107</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D68" s="4">
-        <v>44691</v>
+        <v>44727</v>
       </c>
       <c r="E68" s="2">
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="F68" s="2">
-        <v>0</v>
+        <v>163.4</v>
       </c>
       <c r="G68" s="2">
-        <v>31.3</v>
+        <v>0</v>
       </c>
       <c r="H68" s="2">
-        <v>5.95</v>
+        <v>0</v>
       </c>
       <c r="I68" s="2">
-        <v>31.3</v>
+        <v>860</v>
       </c>
       <c r="J68" s="2">
-        <v>5.95</v>
+        <v>163.4</v>
       </c>
       <c r="K68" s="2">
-        <v>37.25</v>
+        <v>1023.4</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>13</v>
@@ -3383,92 +3277,92 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>361307</v>
+        <v>32642106</v>
       </c>
       <c r="B69" s="2">
-        <v>20220906</v>
+        <v>20221108</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D69" s="4">
-        <v>44692</v>
+        <v>44727</v>
       </c>
       <c r="E69" s="2">
-        <v>410.8</v>
+        <v>235</v>
       </c>
       <c r="F69" s="2">
-        <v>78.05</v>
+        <v>44.65</v>
       </c>
       <c r="G69" s="2">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="H69" s="2">
-        <v>37.619999999999997</v>
+        <v>0</v>
       </c>
       <c r="I69" s="2">
-        <v>608.79999999999995</v>
+        <v>235</v>
       </c>
       <c r="J69" s="2">
-        <v>115.66999999999999</v>
+        <v>44.65</v>
       </c>
       <c r="K69" s="2">
-        <v>724.46999999999991</v>
+        <v>279.64999999999998</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>32468299</v>
+        <v>15413099</v>
       </c>
       <c r="B70" s="2">
-        <v>20220907</v>
+        <v>20221109</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D70" s="4">
-        <v>44692</v>
+        <v>44727</v>
       </c>
       <c r="E70" s="2">
-        <v>0</v>
+        <v>1590</v>
       </c>
       <c r="F70" s="2">
-        <v>0</v>
+        <v>302.10000000000002</v>
       </c>
       <c r="G70" s="2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="H70" s="2">
-        <v>45.6</v>
+        <v>0</v>
       </c>
       <c r="I70" s="2">
-        <v>240</v>
+        <v>1590</v>
       </c>
       <c r="J70" s="2">
-        <v>45.6</v>
+        <v>302.10000000000002</v>
       </c>
       <c r="K70" s="2">
-        <v>285.60000000000002</v>
+        <v>1892.1</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>24048685</v>
+        <v>15413099</v>
       </c>
       <c r="B71" s="2">
-        <v>20220908</v>
+        <v>20221110</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="D71" s="4">
-        <v>44692</v>
+        <v>44728</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
@@ -3477,22 +3371,22 @@
         <v>0</v>
       </c>
       <c r="G71" s="2">
-        <v>165</v>
+        <v>27500.000000000004</v>
       </c>
       <c r="H71" s="2">
-        <v>31.35</v>
+        <v>5225</v>
       </c>
       <c r="I71" s="2">
-        <v>165</v>
+        <v>27500.000000000004</v>
       </c>
       <c r="J71" s="2">
-        <v>31.35</v>
+        <v>5225</v>
       </c>
       <c r="K71" s="2">
-        <v>196.35</v>
+        <v>32725.000000000004</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3500,34 +3394,34 @@
         <v>361307</v>
       </c>
       <c r="B72" s="2">
-        <v>20220909</v>
+        <v>20221111</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D72" s="4">
-        <v>44692</v>
+        <v>44728</v>
       </c>
       <c r="E72" s="2">
-        <v>915.5</v>
+        <v>0</v>
       </c>
       <c r="F72" s="2">
-        <v>173.94</v>
+        <v>0</v>
       </c>
       <c r="G72" s="2">
-        <v>686.9</v>
+        <v>485</v>
       </c>
       <c r="H72" s="2">
-        <v>130.51</v>
+        <v>92.15</v>
       </c>
       <c r="I72" s="2">
-        <v>1602.4</v>
+        <v>485</v>
       </c>
       <c r="J72" s="2">
-        <v>304.45</v>
+        <v>92.15</v>
       </c>
       <c r="K72" s="2">
-        <v>1906.8500000000001</v>
+        <v>577.15</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>13</v>
@@ -3535,40 +3429,40 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>361307</v>
+        <v>24048685</v>
       </c>
       <c r="B73" s="2">
-        <v>20220910</v>
+        <v>20221112</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D73" s="4">
-        <v>44692</v>
+        <v>44728</v>
       </c>
       <c r="E73" s="2">
-        <v>520.5</v>
+        <v>0</v>
       </c>
       <c r="F73" s="2">
-        <v>98.9</v>
+        <v>0</v>
       </c>
       <c r="G73" s="2">
-        <v>218.5</v>
+        <v>225</v>
       </c>
       <c r="H73" s="2">
-        <v>41.52</v>
+        <v>42.75</v>
       </c>
       <c r="I73" s="2">
-        <v>739</v>
+        <v>225</v>
       </c>
       <c r="J73" s="2">
-        <v>140.42000000000002</v>
+        <v>42.75</v>
       </c>
       <c r="K73" s="2">
-        <v>879.42000000000007</v>
+        <v>267.75</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3576,34 +3470,34 @@
         <v>361307</v>
       </c>
       <c r="B74" s="2">
-        <v>20220911</v>
+        <v>20221113</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D74" s="4">
-        <v>44692</v>
+        <v>44728</v>
       </c>
       <c r="E74" s="2">
-        <v>0</v>
+        <v>537.5</v>
       </c>
       <c r="F74" s="2">
-        <v>0</v>
+        <v>102.12</v>
       </c>
       <c r="G74" s="2">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="H74" s="2">
-        <v>22.8</v>
+        <v>85.5</v>
       </c>
       <c r="I74" s="2">
-        <v>120</v>
+        <v>987.5</v>
       </c>
       <c r="J74" s="2">
-        <v>22.8</v>
+        <v>187.62</v>
       </c>
       <c r="K74" s="2">
-        <v>142.80000000000001</v>
+        <v>1175.1199999999999</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>13</v>
@@ -3611,60 +3505,60 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>27959869</v>
+        <v>15413099</v>
       </c>
       <c r="B75" s="2">
-        <v>20220912</v>
+        <v>20221114</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D75" s="4">
-        <v>44692</v>
+        <v>44728</v>
       </c>
       <c r="E75" s="2">
-        <v>0</v>
+        <v>11275</v>
       </c>
       <c r="F75" s="2">
-        <v>0</v>
+        <v>2142.25</v>
       </c>
       <c r="G75" s="2">
-        <v>1095</v>
+        <v>0</v>
       </c>
       <c r="H75" s="2">
-        <v>208.05</v>
+        <v>0</v>
       </c>
       <c r="I75" s="2">
-        <v>1095</v>
+        <v>11275</v>
       </c>
       <c r="J75" s="2">
-        <v>208.05</v>
+        <v>2142.25</v>
       </c>
       <c r="K75" s="2">
-        <v>1303.05</v>
+        <v>13417.25</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>361307</v>
+        <v>15413099</v>
       </c>
       <c r="B76" s="2">
-        <v>20220913</v>
+        <v>20221115</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="D76" s="4">
-        <v>44692</v>
+        <v>44728</v>
       </c>
       <c r="E76" s="2">
-        <v>1239</v>
+        <v>976.99999999999989</v>
       </c>
       <c r="F76" s="2">
-        <v>235.41</v>
+        <v>185.63</v>
       </c>
       <c r="G76" s="2">
         <v>0</v>
@@ -3673,16 +3567,16 @@
         <v>0</v>
       </c>
       <c r="I76" s="2">
-        <v>1239</v>
+        <v>976.99999999999989</v>
       </c>
       <c r="J76" s="2">
-        <v>235.41</v>
+        <v>185.63</v>
       </c>
       <c r="K76" s="2">
-        <v>1474.41</v>
+        <v>1162.6299999999999</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3690,34 +3584,34 @@
         <v>361307</v>
       </c>
       <c r="B77" s="2">
-        <v>20220914</v>
+        <v>20221116</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D77" s="4">
-        <v>44692</v>
+        <v>44729</v>
       </c>
       <c r="E77" s="2">
-        <v>443.75</v>
+        <v>0</v>
       </c>
       <c r="F77" s="2">
-        <v>84.31</v>
+        <v>0</v>
       </c>
       <c r="G77" s="2">
-        <v>857.5</v>
+        <v>234</v>
       </c>
       <c r="H77" s="2">
-        <v>162.91999999999999</v>
+        <v>44.46</v>
       </c>
       <c r="I77" s="2">
-        <v>1301.25</v>
+        <v>234</v>
       </c>
       <c r="J77" s="2">
-        <v>247.23</v>
+        <v>44.46</v>
       </c>
       <c r="K77" s="2">
-        <v>1548.48</v>
+        <v>278.45999999999998</v>
       </c>
       <c r="L77" s="3" t="s">
         <v>13</v>
@@ -3728,34 +3622,34 @@
         <v>361307</v>
       </c>
       <c r="B78" s="2">
-        <v>20220915</v>
+        <v>20221117</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D78" s="4">
-        <v>44693</v>
+        <v>44729</v>
       </c>
       <c r="E78" s="2">
-        <v>532.5</v>
+        <v>215</v>
       </c>
       <c r="F78" s="2">
-        <v>101.18</v>
+        <v>40.85</v>
       </c>
       <c r="G78" s="2">
-        <v>901.5</v>
+        <v>1096.4000000000001</v>
       </c>
       <c r="H78" s="2">
-        <v>171.28</v>
+        <v>208.32</v>
       </c>
       <c r="I78" s="2">
-        <v>1434</v>
+        <v>1311.4</v>
       </c>
       <c r="J78" s="2">
-        <v>272.46000000000004</v>
+        <v>249.17</v>
       </c>
       <c r="K78" s="2">
-        <v>1706.46</v>
+        <v>1560.5700000000002</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>13</v>
@@ -3763,78 +3657,78 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>361307</v>
+        <v>27675131</v>
       </c>
       <c r="B79" s="2">
-        <v>20220916</v>
+        <v>20221118</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="D79" s="4">
-        <v>44693</v>
+        <v>44729</v>
       </c>
       <c r="E79" s="2">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="F79" s="2">
-        <v>136.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="G79" s="2">
-        <v>143.5</v>
+        <v>931</v>
       </c>
       <c r="H79" s="2">
-        <v>27.26</v>
+        <v>176.89</v>
       </c>
       <c r="I79" s="2">
-        <v>863.5</v>
+        <v>931</v>
       </c>
       <c r="J79" s="2">
-        <v>164.06</v>
+        <v>176.89</v>
       </c>
       <c r="K79" s="2">
-        <v>1027.56</v>
+        <v>1107.8899999999999</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>361307</v>
+        <v>27675131</v>
       </c>
       <c r="B80" s="2">
-        <v>20220917</v>
+        <v>20221119</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D80" s="4">
-        <v>44693</v>
+        <v>44729</v>
       </c>
       <c r="E80" s="2">
-        <v>532.5</v>
+        <v>0</v>
       </c>
       <c r="F80" s="2">
-        <v>101.18</v>
+        <v>0</v>
       </c>
       <c r="G80" s="2">
-        <v>351.5</v>
+        <v>6090</v>
       </c>
       <c r="H80" s="2">
-        <v>66.78</v>
+        <v>1157.0999999999999</v>
       </c>
       <c r="I80" s="2">
-        <v>884</v>
+        <v>6090</v>
       </c>
       <c r="J80" s="2">
-        <v>167.96</v>
+        <v>1157.0999999999999</v>
       </c>
       <c r="K80" s="2">
-        <v>1051.96</v>
+        <v>7247.1</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3842,13 +3736,13 @@
         <v>361307</v>
       </c>
       <c r="B81" s="2">
-        <v>20220918</v>
+        <v>20221120</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D81" s="4">
-        <v>44693</v>
+        <v>44729</v>
       </c>
       <c r="E81" s="2">
         <v>0</v>
@@ -3857,19 +3751,19 @@
         <v>0</v>
       </c>
       <c r="G81" s="2">
-        <v>250</v>
+        <v>144.9</v>
       </c>
       <c r="H81" s="2">
-        <v>47.5</v>
+        <v>27.53</v>
       </c>
       <c r="I81" s="2">
-        <v>250</v>
+        <v>144.9</v>
       </c>
       <c r="J81" s="2">
-        <v>47.5</v>
+        <v>27.53</v>
       </c>
       <c r="K81" s="2">
-        <v>297.5</v>
+        <v>172.43</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>13</v>
@@ -3880,34 +3774,34 @@
         <v>361307</v>
       </c>
       <c r="B82" s="2">
-        <v>20220919</v>
+        <v>20221121</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D82" s="4">
-        <v>44693</v>
+        <v>44732</v>
       </c>
       <c r="E82" s="2">
-        <v>62</v>
+        <v>335</v>
       </c>
       <c r="F82" s="2">
-        <v>11.78</v>
+        <v>63.65</v>
       </c>
       <c r="G82" s="2">
-        <v>0</v>
+        <v>746</v>
       </c>
       <c r="H82" s="2">
-        <v>0</v>
+        <v>141.74</v>
       </c>
       <c r="I82" s="2">
-        <v>62</v>
+        <v>1081</v>
       </c>
       <c r="J82" s="2">
-        <v>11.78</v>
+        <v>205.39000000000001</v>
       </c>
       <c r="K82" s="2">
-        <v>73.78</v>
+        <v>1286.3900000000001</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>13</v>
@@ -3918,34 +3812,34 @@
         <v>361307</v>
       </c>
       <c r="B83" s="2">
-        <v>20220920</v>
+        <v>20221122</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D83" s="4">
-        <v>44693</v>
+        <v>44732</v>
       </c>
       <c r="E83" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F83" s="2">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="G83" s="2">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="H83" s="2">
-        <v>0</v>
+        <v>79.42</v>
       </c>
       <c r="I83" s="2">
-        <v>20</v>
+        <v>418</v>
       </c>
       <c r="J83" s="2">
-        <v>3.8</v>
+        <v>79.42</v>
       </c>
       <c r="K83" s="2">
-        <v>23.8</v>
+        <v>497.42</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>13</v>
@@ -3956,34 +3850,34 @@
         <v>361307</v>
       </c>
       <c r="B84" s="2">
-        <v>20220921</v>
+        <v>20221123</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D84" s="4">
-        <v>44693</v>
+        <v>44732</v>
       </c>
       <c r="E84" s="2">
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="F84" s="2">
-        <v>0</v>
+        <v>204.25</v>
       </c>
       <c r="G84" s="2">
-        <v>-18.5</v>
+        <v>1024.5999999999999</v>
       </c>
       <c r="H84" s="2">
-        <v>-3.52</v>
+        <v>194.67</v>
       </c>
       <c r="I84" s="2">
-        <v>-18.5</v>
+        <v>2099.6</v>
       </c>
       <c r="J84" s="2">
-        <v>-3.52</v>
+        <v>398.91999999999996</v>
       </c>
       <c r="K84" s="2">
-        <v>-22.02</v>
+        <v>2498.52</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>13</v>
@@ -3994,34 +3888,34 @@
         <v>361307</v>
       </c>
       <c r="B85" s="2">
-        <v>20220922</v>
+        <v>20221124</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D85" s="4">
-        <v>44693</v>
+        <v>44732</v>
       </c>
       <c r="E85" s="2">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F85" s="2">
-        <v>0</v>
+        <v>48.45</v>
       </c>
       <c r="G85" s="2">
-        <v>-17.850000000000001</v>
+        <v>0</v>
       </c>
       <c r="H85" s="2">
-        <v>-3.39</v>
+        <v>0</v>
       </c>
       <c r="I85" s="2">
-        <v>-17.850000000000001</v>
+        <v>255</v>
       </c>
       <c r="J85" s="2">
-        <v>-3.39</v>
+        <v>48.45</v>
       </c>
       <c r="K85" s="2">
-        <v>-21.240000000000002</v>
+        <v>303.45</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>13</v>
@@ -4032,34 +3926,34 @@
         <v>361307</v>
       </c>
       <c r="B86" s="2">
-        <v>20220923</v>
+        <v>20221125</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="D86" s="4">
-        <v>44693</v>
+        <v>44732</v>
       </c>
       <c r="E86" s="2">
-        <v>611</v>
+        <v>365</v>
       </c>
       <c r="F86" s="2">
-        <v>116.09</v>
+        <v>69.349999999999994</v>
       </c>
       <c r="G86" s="2">
-        <v>283.5</v>
+        <v>997.4</v>
       </c>
       <c r="H86" s="2">
-        <v>53.86</v>
+        <v>189.51</v>
       </c>
       <c r="I86" s="2">
-        <v>894.5</v>
+        <v>1362.4</v>
       </c>
       <c r="J86" s="2">
-        <v>169.95</v>
+        <v>258.86</v>
       </c>
       <c r="K86" s="2">
-        <v>1064.45</v>
+        <v>1621.2600000000002</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>13</v>
@@ -4067,16 +3961,16 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>361307</v>
+        <v>37570469</v>
       </c>
       <c r="B87" s="2">
-        <v>20220924</v>
+        <v>20221126</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D87" s="4">
-        <v>44693</v>
+        <v>44732</v>
       </c>
       <c r="E87" s="2">
         <v>0</v>
@@ -4085,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="G87" s="2">
-        <v>151.30000000000001</v>
+        <v>367.5</v>
       </c>
       <c r="H87" s="2">
-        <v>28.75</v>
+        <v>69.819999999999993</v>
       </c>
       <c r="I87" s="2">
-        <v>151.30000000000001</v>
+        <v>367.5</v>
       </c>
       <c r="J87" s="2">
-        <v>28.75</v>
+        <v>69.819999999999993</v>
       </c>
       <c r="K87" s="2">
-        <v>180.05</v>
+        <v>437.32</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -4108,34 +4002,34 @@
         <v>361307</v>
       </c>
       <c r="B88" s="2">
-        <v>20220925</v>
+        <v>20221127</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D88" s="4">
-        <v>44693</v>
+        <v>44732</v>
       </c>
       <c r="E88" s="2">
-        <v>0</v>
+        <v>1074</v>
       </c>
       <c r="F88" s="2">
-        <v>0</v>
+        <v>204.06</v>
       </c>
       <c r="G88" s="2">
-        <v>917.8</v>
+        <v>75</v>
       </c>
       <c r="H88" s="2">
-        <v>174.38</v>
+        <v>14.25</v>
       </c>
       <c r="I88" s="2">
-        <v>917.8</v>
+        <v>1149</v>
       </c>
       <c r="J88" s="2">
-        <v>174.38</v>
+        <v>218.31</v>
       </c>
       <c r="K88" s="2">
-        <v>1092.1799999999998</v>
+        <v>1367.31</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>13</v>
@@ -4146,13 +4040,13 @@
         <v>361307</v>
       </c>
       <c r="B89" s="2">
-        <v>20220926</v>
+        <v>20221128</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D89" s="4">
-        <v>44694</v>
+        <v>44732</v>
       </c>
       <c r="E89" s="2">
         <v>0</v>
@@ -4161,19 +4055,19 @@
         <v>0</v>
       </c>
       <c r="G89" s="2">
-        <v>240</v>
+        <v>433</v>
       </c>
       <c r="H89" s="2">
-        <v>45.6</v>
+        <v>82.27</v>
       </c>
       <c r="I89" s="2">
-        <v>240</v>
+        <v>433</v>
       </c>
       <c r="J89" s="2">
-        <v>45.6</v>
+        <v>82.27</v>
       </c>
       <c r="K89" s="2">
-        <v>285.60000000000002</v>
+        <v>515.27</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>13</v>
@@ -4184,34 +4078,34 @@
         <v>361307</v>
       </c>
       <c r="B90" s="2">
-        <v>20220927</v>
+        <v>20221129</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D90" s="4">
-        <v>44694</v>
+        <v>44733</v>
       </c>
       <c r="E90" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F90" s="2">
-        <v>0</v>
+        <v>30.4</v>
       </c>
       <c r="G90" s="2">
-        <v>43</v>
+        <v>972.5</v>
       </c>
       <c r="H90" s="2">
-        <v>8.17</v>
+        <v>184.77</v>
       </c>
       <c r="I90" s="2">
-        <v>43</v>
+        <v>1132.5</v>
       </c>
       <c r="J90" s="2">
-        <v>8.17</v>
+        <v>215.17000000000002</v>
       </c>
       <c r="K90" s="2">
-        <v>51.17</v>
+        <v>1347.67</v>
       </c>
       <c r="L90" s="3" t="s">
         <v>13</v>
@@ -4222,34 +4116,34 @@
         <v>361307</v>
       </c>
       <c r="B91" s="2">
-        <v>20220928</v>
+        <v>20221130</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D91" s="4">
-        <v>44694</v>
+        <v>44733</v>
       </c>
       <c r="E91" s="2">
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="F91" s="2">
-        <v>0</v>
+        <v>204.25</v>
       </c>
       <c r="G91" s="2">
-        <v>550.79999999999995</v>
+        <v>1251</v>
       </c>
       <c r="H91" s="2">
-        <v>104.65</v>
+        <v>237.69</v>
       </c>
       <c r="I91" s="2">
-        <v>550.79999999999995</v>
+        <v>2326</v>
       </c>
       <c r="J91" s="2">
-        <v>104.65</v>
+        <v>441.94</v>
       </c>
       <c r="K91" s="2">
-        <v>655.44999999999993</v>
+        <v>2767.94</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>13</v>
@@ -4257,116 +4151,116 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>361307</v>
+        <v>14611640</v>
       </c>
       <c r="B92" s="2">
-        <v>20220929</v>
+        <v>20221131</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D92" s="4">
-        <v>44694</v>
+        <v>44733</v>
       </c>
       <c r="E92" s="2">
-        <v>443.75</v>
+        <v>0</v>
       </c>
       <c r="F92" s="2">
-        <v>84.31</v>
+        <v>0</v>
       </c>
       <c r="G92" s="2">
-        <v>416.5</v>
+        <v>396</v>
       </c>
       <c r="H92" s="2">
-        <v>79.13</v>
+        <v>75.239999999999995</v>
       </c>
       <c r="I92" s="2">
-        <v>860.25</v>
+        <v>396</v>
       </c>
       <c r="J92" s="2">
-        <v>163.44</v>
+        <v>75.239999999999995</v>
       </c>
       <c r="K92" s="2">
-        <v>1023.69</v>
+        <v>471.24</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>361307</v>
+        <v>36318863</v>
       </c>
       <c r="B93" s="2">
-        <v>20220930</v>
+        <v>20221132</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D93" s="4">
-        <v>44694</v>
+        <v>44733</v>
       </c>
       <c r="E93" s="2">
-        <v>532.5</v>
+        <v>0</v>
       </c>
       <c r="F93" s="2">
-        <v>101.18</v>
+        <v>0</v>
       </c>
       <c r="G93" s="2">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="H93" s="2">
-        <v>0</v>
+        <v>182.4</v>
       </c>
       <c r="I93" s="2">
-        <v>532.5</v>
+        <v>960</v>
       </c>
       <c r="J93" s="2">
-        <v>101.18</v>
+        <v>182.4</v>
       </c>
       <c r="K93" s="2">
-        <v>633.68000000000006</v>
+        <v>1142.4000000000001</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>15413099</v>
+        <v>361307</v>
       </c>
       <c r="B94" s="2">
-        <v>20220931</v>
+        <v>20221133</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D94" s="4">
-        <v>44694</v>
+        <v>44733</v>
       </c>
       <c r="E94" s="2">
-        <v>677</v>
+        <v>645</v>
       </c>
       <c r="F94" s="2">
-        <v>128.63</v>
+        <v>122.55</v>
       </c>
       <c r="G94" s="2">
-        <v>0</v>
+        <v>766</v>
       </c>
       <c r="H94" s="2">
-        <v>0</v>
+        <v>145.54</v>
       </c>
       <c r="I94" s="2">
-        <v>677</v>
+        <v>1411</v>
       </c>
       <c r="J94" s="2">
-        <v>128.63</v>
+        <v>268.08999999999997</v>
       </c>
       <c r="K94" s="2">
-        <v>805.63</v>
+        <v>1679.09</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -4374,34 +4268,34 @@
         <v>361307</v>
       </c>
       <c r="B95" s="2">
-        <v>20220932</v>
+        <v>20221134</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D95" s="4">
-        <v>44694</v>
+        <v>44733</v>
       </c>
       <c r="E95" s="2">
-        <v>887.5</v>
+        <v>270</v>
       </c>
       <c r="F95" s="2">
-        <v>168.62</v>
+        <v>51.3</v>
       </c>
       <c r="G95" s="2">
-        <v>1035</v>
+        <v>157</v>
       </c>
       <c r="H95" s="2">
-        <v>196.65</v>
+        <v>29.83</v>
       </c>
       <c r="I95" s="2">
-        <v>1922.5</v>
+        <v>427</v>
       </c>
       <c r="J95" s="2">
-        <v>365.27</v>
+        <v>81.13</v>
       </c>
       <c r="K95" s="2">
-        <v>2287.77</v>
+        <v>508.13</v>
       </c>
       <c r="L95" s="3" t="s">
         <v>13</v>
@@ -4409,16 +4303,16 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>14171183</v>
+        <v>15413099</v>
       </c>
       <c r="B96" s="2">
-        <v>20220933</v>
+        <v>20221135</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D96" s="4">
-        <v>44697</v>
+        <v>44733</v>
       </c>
       <c r="E96" s="2">
         <v>0</v>
@@ -4427,22 +4321,22 @@
         <v>0</v>
       </c>
       <c r="G96" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="H96" s="2">
-        <v>70.3</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="I96" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="J96" s="2">
-        <v>70.3</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="K96" s="2">
-        <v>440.3</v>
+        <v>428.4</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4450,34 +4344,34 @@
         <v>361307</v>
       </c>
       <c r="B97" s="2">
-        <v>20220934</v>
+        <v>20221136</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D97" s="4">
-        <v>44697</v>
+        <v>44734</v>
       </c>
       <c r="E97" s="2">
-        <v>1004.5</v>
+        <v>53</v>
       </c>
       <c r="F97" s="2">
-        <v>190.86</v>
+        <v>10.07</v>
       </c>
       <c r="G97" s="2">
-        <v>54</v>
+        <v>93.6</v>
       </c>
       <c r="H97" s="2">
-        <v>10.26</v>
+        <v>17.78</v>
       </c>
       <c r="I97" s="2">
-        <v>1058.5</v>
+        <v>146.6</v>
       </c>
       <c r="J97" s="2">
-        <v>201.12</v>
+        <v>27.85</v>
       </c>
       <c r="K97" s="2">
-        <v>1259.6199999999999</v>
+        <v>174.45</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>13</v>
@@ -4488,34 +4382,34 @@
         <v>361307</v>
       </c>
       <c r="B98" s="2">
-        <v>20220935</v>
+        <v>20221137</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D98" s="4">
-        <v>44697</v>
+        <v>44735</v>
       </c>
       <c r="E98" s="2">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="F98" s="2">
-        <v>102.6</v>
+        <v>0</v>
       </c>
       <c r="G98" s="2">
-        <v>37.5</v>
+        <v>270.8</v>
       </c>
       <c r="H98" s="2">
-        <v>7.12</v>
+        <v>51.45</v>
       </c>
       <c r="I98" s="2">
-        <v>577.5</v>
+        <v>270.8</v>
       </c>
       <c r="J98" s="2">
-        <v>109.72</v>
+        <v>51.45</v>
       </c>
       <c r="K98" s="2">
-        <v>687.22</v>
+        <v>322.25</v>
       </c>
       <c r="L98" s="3" t="s">
         <v>13</v>
@@ -4526,34 +4420,34 @@
         <v>361307</v>
       </c>
       <c r="B99" s="2">
-        <v>20220936</v>
+        <v>20221138</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D99" s="4">
-        <v>44697</v>
+        <v>44735</v>
       </c>
       <c r="E99" s="2">
-        <v>928.75</v>
+        <v>542.5</v>
       </c>
       <c r="F99" s="2">
-        <v>176.46</v>
+        <v>103.08</v>
       </c>
       <c r="G99" s="2">
-        <v>159.5</v>
+        <v>18899.75</v>
       </c>
       <c r="H99" s="2">
-        <v>30.3</v>
+        <v>3590.95</v>
       </c>
       <c r="I99" s="2">
-        <v>1088.25</v>
+        <v>19442.25</v>
       </c>
       <c r="J99" s="2">
-        <v>206.76000000000002</v>
+        <v>3694.0299999999997</v>
       </c>
       <c r="K99" s="2">
-        <v>1295.01</v>
+        <v>23136.28</v>
       </c>
       <c r="L99" s="3" t="s">
         <v>13</v>
@@ -4564,34 +4458,34 @@
         <v>361307</v>
       </c>
       <c r="B100" s="2">
-        <v>20220937</v>
+        <v>20221139</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D100" s="4">
-        <v>44697</v>
+        <v>44735</v>
       </c>
       <c r="E100" s="2">
-        <v>660.5</v>
+        <v>59.5</v>
       </c>
       <c r="F100" s="2">
-        <v>125.5</v>
+        <v>11.3</v>
       </c>
       <c r="G100" s="2">
-        <v>2279</v>
+        <v>7217.75</v>
       </c>
       <c r="H100" s="2">
-        <v>433.01</v>
+        <v>1371.37</v>
       </c>
       <c r="I100" s="2">
-        <v>2939.5</v>
+        <v>7277.25</v>
       </c>
       <c r="J100" s="2">
-        <v>558.51</v>
+        <v>1382.6699999999998</v>
       </c>
       <c r="K100" s="2">
-        <v>3498.01</v>
+        <v>8659.92</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>13</v>
@@ -4602,34 +4496,34 @@
         <v>361307</v>
       </c>
       <c r="B101" s="2">
-        <v>20220938</v>
+        <v>20221140</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D101" s="4">
-        <v>44697</v>
+        <v>44735</v>
       </c>
       <c r="E101" s="2">
-        <v>523</v>
+        <v>191.7</v>
       </c>
       <c r="F101" s="2">
-        <v>99.37</v>
+        <v>36.42</v>
       </c>
       <c r="G101" s="2">
-        <v>639.5</v>
+        <v>218</v>
       </c>
       <c r="H101" s="2">
-        <v>121.5</v>
+        <v>41.42</v>
       </c>
       <c r="I101" s="2">
-        <v>1162.5</v>
+        <v>409.7</v>
       </c>
       <c r="J101" s="2">
-        <v>220.87</v>
+        <v>77.84</v>
       </c>
       <c r="K101" s="2">
-        <v>1383.37</v>
+        <v>487.53999999999996</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>13</v>
@@ -4637,40 +4531,40 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>20752873</v>
+        <v>361307</v>
       </c>
       <c r="B102" s="2">
-        <v>20220939</v>
+        <v>20221141</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="D102" s="4">
-        <v>44697</v>
+        <v>44735</v>
       </c>
       <c r="E102" s="2">
-        <v>3495</v>
+        <v>226.25</v>
       </c>
       <c r="F102" s="2">
-        <v>664.05</v>
+        <v>42.99</v>
       </c>
       <c r="G102" s="2">
-        <v>0</v>
+        <v>12105.75</v>
       </c>
       <c r="H102" s="2">
-        <v>0</v>
+        <v>2300.09</v>
       </c>
       <c r="I102" s="2">
-        <v>3495</v>
+        <v>12332</v>
       </c>
       <c r="J102" s="2">
-        <v>664.05</v>
+        <v>2343.08</v>
       </c>
       <c r="K102" s="2">
-        <v>4159.05</v>
+        <v>14675.08</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4678,34 +4572,34 @@
         <v>361307</v>
       </c>
       <c r="B103" s="2">
-        <v>20220940</v>
+        <v>20221142</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D103" s="4">
-        <v>44697</v>
+        <v>44735</v>
       </c>
       <c r="E103" s="2">
-        <v>160</v>
+        <v>1076.5</v>
       </c>
       <c r="F103" s="2">
-        <v>30.4</v>
+        <v>204.54</v>
       </c>
       <c r="G103" s="2">
-        <v>506.9</v>
+        <v>339.8</v>
       </c>
       <c r="H103" s="2">
-        <v>96.31</v>
+        <v>64.56</v>
       </c>
       <c r="I103" s="2">
-        <v>666.9</v>
+        <v>1416.3</v>
       </c>
       <c r="J103" s="2">
-        <v>126.71000000000001</v>
+        <v>269.10000000000002</v>
       </c>
       <c r="K103" s="2">
-        <v>793.61</v>
+        <v>1685.4</v>
       </c>
       <c r="L103" s="3" t="s">
         <v>13</v>
@@ -4713,98 +4607,98 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>361307</v>
+        <v>37570469</v>
       </c>
       <c r="B104" s="2">
-        <v>20220941</v>
+        <v>20221143</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="D104" s="4">
-        <v>44698</v>
+        <v>44735</v>
       </c>
       <c r="E104" s="2">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="F104" s="2">
-        <v>31.35</v>
+        <v>0</v>
       </c>
       <c r="G104" s="2">
-        <v>395.8</v>
+        <v>505.5</v>
       </c>
       <c r="H104" s="2">
-        <v>75.2</v>
+        <v>96.04</v>
       </c>
       <c r="I104" s="2">
-        <v>560.79999999999995</v>
+        <v>505.5</v>
       </c>
       <c r="J104" s="2">
-        <v>106.55000000000001</v>
+        <v>96.04</v>
       </c>
       <c r="K104" s="2">
-        <v>667.34999999999991</v>
+        <v>601.54</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>13467556</v>
+        <v>361307</v>
       </c>
       <c r="B105" s="2">
-        <v>20220942</v>
+        <v>20221144</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="D105" s="4">
-        <v>44698</v>
+        <v>44735</v>
       </c>
       <c r="E105" s="2">
-        <v>383.45000000000005</v>
+        <v>649</v>
       </c>
       <c r="F105" s="2">
-        <v>72.86</v>
+        <v>123.31</v>
       </c>
       <c r="G105" s="2">
-        <v>0</v>
+        <v>187.2</v>
       </c>
       <c r="H105" s="2">
-        <v>0</v>
+        <v>35.57</v>
       </c>
       <c r="I105" s="2">
-        <v>383.45000000000005</v>
+        <v>836.2</v>
       </c>
       <c r="J105" s="2">
-        <v>72.86</v>
+        <v>158.88</v>
       </c>
       <c r="K105" s="2">
-        <v>456.31000000000006</v>
+        <v>995.08</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>13467556</v>
+        <v>361307</v>
       </c>
       <c r="B106" s="2">
-        <v>20220943</v>
+        <v>20221145</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D106" s="4">
-        <v>44698</v>
+        <v>44735</v>
       </c>
       <c r="E106" s="2">
-        <v>232.95</v>
+        <v>810</v>
       </c>
       <c r="F106" s="2">
-        <v>44.26</v>
+        <v>153.9</v>
       </c>
       <c r="G106" s="2">
         <v>0</v>
@@ -4813,16 +4707,16 @@
         <v>0</v>
       </c>
       <c r="I106" s="2">
-        <v>232.95</v>
+        <v>810</v>
       </c>
       <c r="J106" s="2">
-        <v>44.26</v>
+        <v>153.9</v>
       </c>
       <c r="K106" s="2">
-        <v>277.20999999999998</v>
+        <v>963.9</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4830,34 +4724,34 @@
         <v>361307</v>
       </c>
       <c r="B107" s="2">
-        <v>20220944</v>
+        <v>20221146</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D107" s="4">
-        <v>44698</v>
+        <v>44735</v>
       </c>
       <c r="E107" s="2">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="F107" s="2">
-        <v>0</v>
+        <v>67.83</v>
       </c>
       <c r="G107" s="2">
-        <v>453.5</v>
+        <v>21906.75</v>
       </c>
       <c r="H107" s="2">
-        <v>86.16</v>
+        <v>4162.28</v>
       </c>
       <c r="I107" s="2">
-        <v>453.5</v>
+        <v>22263.75</v>
       </c>
       <c r="J107" s="2">
-        <v>86.16</v>
+        <v>4230.1099999999997</v>
       </c>
       <c r="K107" s="2">
-        <v>539.66</v>
+        <v>26493.86</v>
       </c>
       <c r="L107" s="3" t="s">
         <v>13</v>
@@ -4868,34 +4762,34 @@
         <v>361307</v>
       </c>
       <c r="B108" s="2">
-        <v>20220945</v>
+        <v>20221147</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D108" s="4">
-        <v>44698</v>
+        <v>44735</v>
       </c>
       <c r="E108" s="2">
-        <v>692.5</v>
+        <v>0</v>
       </c>
       <c r="F108" s="2">
-        <v>131.57</v>
+        <v>0</v>
       </c>
       <c r="G108" s="2">
-        <v>646</v>
+        <v>390</v>
       </c>
       <c r="H108" s="2">
-        <v>122.74</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="I108" s="2">
-        <v>1338.5</v>
+        <v>390</v>
       </c>
       <c r="J108" s="2">
-        <v>254.31</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="K108" s="2">
-        <v>1592.81</v>
+        <v>464.1</v>
       </c>
       <c r="L108" s="3" t="s">
         <v>13</v>
@@ -4906,34 +4800,34 @@
         <v>361307</v>
       </c>
       <c r="B109" s="2">
-        <v>20220946</v>
+        <v>20221148</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D109" s="4">
-        <v>44698</v>
+        <v>44735</v>
       </c>
       <c r="E109" s="2">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="F109" s="2">
-        <v>31.35</v>
+        <v>0</v>
       </c>
       <c r="G109" s="2">
-        <v>120</v>
+        <v>1750</v>
       </c>
       <c r="H109" s="2">
-        <v>22.8</v>
+        <v>332.5</v>
       </c>
       <c r="I109" s="2">
-        <v>285</v>
+        <v>1750</v>
       </c>
       <c r="J109" s="2">
-        <v>54.150000000000006</v>
+        <v>332.5</v>
       </c>
       <c r="K109" s="2">
-        <v>339.15</v>
+        <v>2082.5</v>
       </c>
       <c r="L109" s="3" t="s">
         <v>13</v>
@@ -4944,34 +4838,34 @@
         <v>361307</v>
       </c>
       <c r="B110" s="2">
-        <v>20220947</v>
+        <v>20221149</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D110" s="4">
-        <v>44698</v>
+        <v>44735</v>
       </c>
       <c r="E110" s="2">
-        <v>390</v>
+        <v>862.5</v>
       </c>
       <c r="F110" s="2">
-        <v>74.099999999999994</v>
+        <v>163.88</v>
       </c>
       <c r="G110" s="2">
-        <v>0</v>
+        <v>930.9</v>
       </c>
       <c r="H110" s="2">
-        <v>0</v>
+        <v>176.87</v>
       </c>
       <c r="I110" s="2">
-        <v>390</v>
+        <v>1793.4</v>
       </c>
       <c r="J110" s="2">
-        <v>74.099999999999994</v>
+        <v>340.75</v>
       </c>
       <c r="K110" s="2">
-        <v>464.1</v>
+        <v>2134.15</v>
       </c>
       <c r="L110" s="3" t="s">
         <v>13</v>
@@ -4979,54 +4873,54 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>32543420</v>
+        <v>361307</v>
       </c>
       <c r="B111" s="2">
-        <v>20220948</v>
+        <v>20221150</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D111" s="4">
-        <v>44698</v>
+        <v>44735</v>
       </c>
       <c r="E111" s="2">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="F111" s="2">
-        <v>0</v>
+        <v>107.92</v>
       </c>
       <c r="G111" s="2">
-        <v>300</v>
+        <v>269.5</v>
       </c>
       <c r="H111" s="2">
-        <v>57</v>
+        <v>51.2</v>
       </c>
       <c r="I111" s="2">
-        <v>300</v>
+        <v>837.5</v>
       </c>
       <c r="J111" s="2">
-        <v>57</v>
+        <v>159.12</v>
       </c>
       <c r="K111" s="2">
-        <v>357</v>
+        <v>996.62</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>42965465</v>
+        <v>361307</v>
       </c>
       <c r="B112" s="2">
-        <v>20220949</v>
+        <v>20221151</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D112" s="4">
-        <v>44699</v>
+        <v>44735</v>
       </c>
       <c r="E112" s="2">
         <v>0</v>
@@ -5035,136 +4929,136 @@
         <v>0</v>
       </c>
       <c r="G112" s="2">
-        <v>1935.5</v>
+        <v>-31.6</v>
       </c>
       <c r="H112" s="2">
-        <v>367.75</v>
+        <v>-6</v>
       </c>
       <c r="I112" s="2">
-        <v>1935.5</v>
+        <v>-31.6</v>
       </c>
       <c r="J112" s="2">
-        <v>367.75</v>
+        <v>-6</v>
       </c>
       <c r="K112" s="2">
-        <v>2303.25</v>
+        <v>-37.6</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>361307</v>
+        <v>3822332</v>
       </c>
       <c r="B113" s="2">
-        <v>20220950</v>
+        <v>20221152</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D113" s="4">
-        <v>44699</v>
+        <v>44736</v>
       </c>
       <c r="E113" s="2">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="F113" s="2">
-        <v>104.31</v>
+        <v>0</v>
       </c>
       <c r="G113" s="2">
-        <v>696.2</v>
+        <v>360</v>
       </c>
       <c r="H113" s="2">
-        <v>132.28</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="I113" s="2">
-        <v>1245.2</v>
+        <v>360</v>
       </c>
       <c r="J113" s="2">
-        <v>236.59</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="K113" s="2">
-        <v>1481.79</v>
+        <v>428.4</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>361307</v>
+        <v>36318863</v>
       </c>
       <c r="B114" s="2">
-        <v>20220951</v>
+        <v>20221153</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D114" s="4">
-        <v>44699</v>
+        <v>44736</v>
       </c>
       <c r="E114" s="2">
-        <v>537.5</v>
+        <v>0</v>
       </c>
       <c r="F114" s="2">
-        <v>102.12</v>
+        <v>0</v>
       </c>
       <c r="G114" s="2">
-        <v>60</v>
+        <v>2140</v>
       </c>
       <c r="H114" s="2">
-        <v>11.4</v>
+        <v>406.6</v>
       </c>
       <c r="I114" s="2">
-        <v>597.5</v>
+        <v>2140</v>
       </c>
       <c r="J114" s="2">
-        <v>113.52000000000001</v>
+        <v>406.6</v>
       </c>
       <c r="K114" s="2">
-        <v>711.02</v>
+        <v>2546.6</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>32642106</v>
+        <v>361307</v>
       </c>
       <c r="B115" s="2">
-        <v>20220952</v>
+        <v>20221154</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D115" s="4">
-        <v>44699</v>
+        <v>44736</v>
       </c>
       <c r="E115" s="2">
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="F115" s="2">
-        <v>99.75</v>
+        <v>0</v>
       </c>
       <c r="G115" s="2">
-        <v>1160</v>
+        <v>-285</v>
       </c>
       <c r="H115" s="2">
-        <v>220.4</v>
+        <v>-54.15</v>
       </c>
       <c r="I115" s="2">
-        <v>1685</v>
+        <v>-285</v>
       </c>
       <c r="J115" s="2">
-        <v>320.14999999999998</v>
+        <v>-54.15</v>
       </c>
       <c r="K115" s="2">
-        <v>2005.15</v>
+        <v>-339.15</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -5172,34 +5066,34 @@
         <v>361307</v>
       </c>
       <c r="B116" s="2">
-        <v>20220953</v>
+        <v>20221155</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="D116" s="4">
-        <v>44699</v>
+        <v>44736</v>
       </c>
       <c r="E116" s="2">
-        <v>501</v>
+        <v>0</v>
       </c>
       <c r="F116" s="2">
-        <v>95.19</v>
+        <v>0</v>
       </c>
       <c r="G116" s="2">
-        <v>0</v>
+        <v>-285</v>
       </c>
       <c r="H116" s="2">
-        <v>0</v>
+        <v>-54.15</v>
       </c>
       <c r="I116" s="2">
-        <v>501</v>
+        <v>-285</v>
       </c>
       <c r="J116" s="2">
-        <v>95.19</v>
+        <v>-54.15</v>
       </c>
       <c r="K116" s="2">
-        <v>596.19000000000005</v>
+        <v>-339.15</v>
       </c>
       <c r="L116" s="3" t="s">
         <v>13</v>
@@ -5210,34 +5104,34 @@
         <v>361307</v>
       </c>
       <c r="B117" s="2">
-        <v>20220954</v>
+        <v>20221156</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D117" s="4">
-        <v>44699</v>
+        <v>44736</v>
       </c>
       <c r="E117" s="2">
-        <v>270</v>
+        <v>390</v>
       </c>
       <c r="F117" s="2">
-        <v>51.3</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="G117" s="2">
-        <v>171.6</v>
+        <v>743</v>
       </c>
       <c r="H117" s="2">
-        <v>32.6</v>
+        <v>141.16999999999999</v>
       </c>
       <c r="I117" s="2">
-        <v>441.6</v>
+        <v>1133</v>
       </c>
       <c r="J117" s="2">
-        <v>83.9</v>
+        <v>215.26999999999998</v>
       </c>
       <c r="K117" s="2">
-        <v>525.5</v>
+        <v>1348.27</v>
       </c>
       <c r="L117" s="3" t="s">
         <v>13</v>
@@ -5248,34 +5142,34 @@
         <v>361307</v>
       </c>
       <c r="B118" s="2">
-        <v>20220955</v>
+        <v>20221157</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D118" s="4">
-        <v>44699</v>
+        <v>44736</v>
       </c>
       <c r="E118" s="2">
-        <v>537.5</v>
+        <v>89.25</v>
       </c>
       <c r="F118" s="2">
-        <v>102.12</v>
+        <v>16.96</v>
       </c>
       <c r="G118" s="2">
-        <v>803.35</v>
+        <v>12468.25</v>
       </c>
       <c r="H118" s="2">
-        <v>152.63999999999999</v>
+        <v>2368.9699999999998</v>
       </c>
       <c r="I118" s="2">
-        <v>1340.85</v>
+        <v>12557.5</v>
       </c>
       <c r="J118" s="2">
-        <v>254.76</v>
+        <v>2385.9299999999998</v>
       </c>
       <c r="K118" s="2">
-        <v>1595.61</v>
+        <v>14943.43</v>
       </c>
       <c r="L118" s="3" t="s">
         <v>13</v>
@@ -5286,34 +5180,34 @@
         <v>361307</v>
       </c>
       <c r="B119" s="2">
-        <v>20220956</v>
+        <v>20221158</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D119" s="4">
-        <v>44699</v>
+        <v>44736</v>
       </c>
       <c r="E119" s="2">
-        <v>450</v>
+        <v>363.25</v>
       </c>
       <c r="F119" s="2">
-        <v>85.5</v>
+        <v>69.02</v>
       </c>
       <c r="G119" s="2">
-        <v>0</v>
+        <v>17304.75</v>
       </c>
       <c r="H119" s="2">
-        <v>0</v>
+        <v>3287.9</v>
       </c>
       <c r="I119" s="2">
-        <v>450</v>
+        <v>17668</v>
       </c>
       <c r="J119" s="2">
-        <v>85.5</v>
+        <v>3356.92</v>
       </c>
       <c r="K119" s="2">
-        <v>535.5</v>
+        <v>21024.92</v>
       </c>
       <c r="L119" s="3" t="s">
         <v>13</v>
@@ -5321,40 +5215,40 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>361307</v>
+        <v>27675131</v>
       </c>
       <c r="B120" s="2">
-        <v>20220957</v>
+        <v>20221159</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D120" s="4">
-        <v>44699</v>
+        <v>44736</v>
       </c>
       <c r="E120" s="2">
-        <v>1335</v>
+        <v>0</v>
       </c>
       <c r="F120" s="2">
-        <v>253.65</v>
+        <v>0</v>
       </c>
       <c r="G120" s="2">
-        <v>180</v>
+        <v>1070</v>
       </c>
       <c r="H120" s="2">
-        <v>34.200000000000003</v>
+        <v>203.3</v>
       </c>
       <c r="I120" s="2">
-        <v>1515</v>
+        <v>1070</v>
       </c>
       <c r="J120" s="2">
-        <v>287.85000000000002</v>
+        <v>203.3</v>
       </c>
       <c r="K120" s="2">
-        <v>1802.85</v>
+        <v>1273.3</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -5362,75 +5256,75 @@
         <v>361307</v>
       </c>
       <c r="B121" s="2">
-        <v>20220958</v>
+        <v>20221160</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="D121" s="4">
-        <v>44700</v>
+        <v>44736</v>
       </c>
       <c r="E121" s="2">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F121" s="2">
-        <v>45.6</v>
+        <v>0</v>
       </c>
       <c r="G121" s="2">
-        <v>1378.8</v>
+        <v>1585.8</v>
       </c>
       <c r="H121" s="2">
-        <v>261.97000000000003</v>
+        <v>301.3</v>
       </c>
       <c r="I121" s="2">
-        <v>1618.8</v>
+        <v>1585.8</v>
       </c>
       <c r="J121" s="2">
-        <v>307.57000000000005</v>
+        <v>301.3</v>
       </c>
       <c r="K121" s="2">
-        <v>1926.37</v>
+        <v>1887.1</v>
       </c>
       <c r="L121" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>37570469</v>
+        <v>361307</v>
       </c>
       <c r="B122" s="2">
-        <v>20220959</v>
+        <v>20221161</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="D122" s="4">
-        <v>44700</v>
+        <v>44736</v>
       </c>
       <c r="E122" s="2">
-        <v>0</v>
+        <v>297.5</v>
       </c>
       <c r="F122" s="2">
-        <v>0</v>
+        <v>56.52</v>
       </c>
       <c r="G122" s="2">
-        <v>1761</v>
+        <v>21614.5</v>
       </c>
       <c r="H122" s="2">
-        <v>334.59</v>
+        <v>4106.76</v>
       </c>
       <c r="I122" s="2">
-        <v>1761</v>
+        <v>21912</v>
       </c>
       <c r="J122" s="2">
-        <v>334.59</v>
+        <v>4163.2800000000007</v>
       </c>
       <c r="K122" s="2">
-        <v>2095.59</v>
+        <v>26075.279999999999</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -5438,34 +5332,34 @@
         <v>361307</v>
       </c>
       <c r="B123" s="2">
-        <v>20220960</v>
+        <v>20221162</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D123" s="4">
-        <v>44700</v>
+        <v>44739</v>
       </c>
       <c r="E123" s="2">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="F123" s="2">
-        <v>81.7</v>
+        <v>0</v>
       </c>
       <c r="G123" s="2">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="H123" s="2">
-        <v>45.22</v>
+        <v>37.81</v>
       </c>
       <c r="I123" s="2">
-        <v>668</v>
+        <v>199</v>
       </c>
       <c r="J123" s="2">
-        <v>126.92</v>
+        <v>37.81</v>
       </c>
       <c r="K123" s="2">
-        <v>794.92</v>
+        <v>236.81</v>
       </c>
       <c r="L123" s="3" t="s">
         <v>13</v>
@@ -5476,34 +5370,34 @@
         <v>361307</v>
       </c>
       <c r="B124" s="2">
-        <v>20220961</v>
+        <v>20221163</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D124" s="4">
-        <v>44700</v>
+        <v>44739</v>
       </c>
       <c r="E124" s="2">
-        <v>732.5</v>
+        <v>645</v>
       </c>
       <c r="F124" s="2">
-        <v>139.16999999999999</v>
+        <v>122.55</v>
       </c>
       <c r="G124" s="2">
-        <v>978</v>
+        <v>0</v>
       </c>
       <c r="H124" s="2">
-        <v>185.82</v>
+        <v>0</v>
       </c>
       <c r="I124" s="2">
-        <v>1710.5</v>
+        <v>645</v>
       </c>
       <c r="J124" s="2">
-        <v>324.99</v>
+        <v>122.55</v>
       </c>
       <c r="K124" s="2">
-        <v>2035.49</v>
+        <v>767.55</v>
       </c>
       <c r="L124" s="3" t="s">
         <v>13</v>
@@ -5514,34 +5408,34 @@
         <v>361307</v>
       </c>
       <c r="B125" s="2">
-        <v>20220962</v>
+        <v>20221164</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D125" s="4">
-        <v>44700</v>
+        <v>44739</v>
       </c>
       <c r="E125" s="2">
-        <v>219</v>
+        <v>176.5</v>
       </c>
       <c r="F125" s="2">
-        <v>41.61</v>
+        <v>33.53</v>
       </c>
       <c r="G125" s="2">
-        <v>51.3</v>
+        <v>37.5</v>
       </c>
       <c r="H125" s="2">
-        <v>9.75</v>
+        <v>7.12</v>
       </c>
       <c r="I125" s="2">
-        <v>270.3</v>
+        <v>214</v>
       </c>
       <c r="J125" s="2">
-        <v>51.36</v>
+        <v>40.65</v>
       </c>
       <c r="K125" s="2">
-        <v>321.66000000000003</v>
+        <v>254.65</v>
       </c>
       <c r="L125" s="3" t="s">
         <v>13</v>
@@ -5552,13 +5446,13 @@
         <v>361307</v>
       </c>
       <c r="B126" s="2">
-        <v>20220963</v>
+        <v>20221165</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D126" s="4">
-        <v>44700</v>
+        <v>44739</v>
       </c>
       <c r="E126" s="2">
         <v>0</v>
@@ -5567,19 +5461,19 @@
         <v>0</v>
       </c>
       <c r="G126" s="2">
-        <v>-171</v>
+        <v>1347.6</v>
       </c>
       <c r="H126" s="2">
-        <v>-32.49</v>
+        <v>256.04000000000002</v>
       </c>
       <c r="I126" s="2">
-        <v>-171</v>
+        <v>1347.6</v>
       </c>
       <c r="J126" s="2">
-        <v>-32.49</v>
+        <v>256.04000000000002</v>
       </c>
       <c r="K126" s="2">
-        <v>-203.49</v>
+        <v>1603.6399999999999</v>
       </c>
       <c r="L126" s="3" t="s">
         <v>13</v>
@@ -5590,34 +5484,34 @@
         <v>361307</v>
       </c>
       <c r="B127" s="2">
-        <v>20220964</v>
+        <v>20221166</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D127" s="4">
-        <v>44700</v>
+        <v>44739</v>
       </c>
       <c r="E127" s="2">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F127" s="2">
-        <v>13.11</v>
+        <v>0</v>
       </c>
       <c r="G127" s="2">
-        <v>408</v>
+        <v>-1299.2000000000003</v>
       </c>
       <c r="H127" s="2">
-        <v>77.52</v>
+        <v>-246.85</v>
       </c>
       <c r="I127" s="2">
-        <v>477</v>
+        <v>-1299.2000000000003</v>
       </c>
       <c r="J127" s="2">
-        <v>90.63</v>
+        <v>-246.85</v>
       </c>
       <c r="K127" s="2">
-        <v>567.63</v>
+        <v>-1546.0500000000002</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>13</v>
@@ -5628,34 +5522,34 @@
         <v>361307</v>
       </c>
       <c r="B128" s="2">
-        <v>20220965</v>
+        <v>20221167</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D128" s="4">
-        <v>44701</v>
+        <v>44740</v>
       </c>
       <c r="E128" s="2">
-        <v>320</v>
+        <v>148.75</v>
       </c>
       <c r="F128" s="2">
-        <v>60.8</v>
+        <v>28.26</v>
       </c>
       <c r="G128" s="2">
-        <v>0</v>
+        <v>16851.5</v>
       </c>
       <c r="H128" s="2">
-        <v>0</v>
+        <v>3201.78</v>
       </c>
       <c r="I128" s="2">
-        <v>320</v>
+        <v>17000.25</v>
       </c>
       <c r="J128" s="2">
-        <v>60.8</v>
+        <v>3230.0400000000004</v>
       </c>
       <c r="K128" s="2">
-        <v>380.8</v>
+        <v>20230.29</v>
       </c>
       <c r="L128" s="3" t="s">
         <v>13</v>
@@ -5663,54 +5557,54 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>3822332</v>
+        <v>361307</v>
       </c>
       <c r="B129" s="2">
-        <v>20220966</v>
+        <v>20221168</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D129" s="4">
-        <v>44701</v>
+        <v>44740</v>
       </c>
       <c r="E129" s="2">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="F129" s="2">
-        <v>0</v>
+        <v>87.02</v>
       </c>
       <c r="G129" s="2">
-        <v>504</v>
+        <v>3107.5</v>
       </c>
       <c r="H129" s="2">
-        <v>95.76</v>
+        <v>590.41999999999996</v>
       </c>
       <c r="I129" s="2">
-        <v>504</v>
+        <v>3565.5</v>
       </c>
       <c r="J129" s="2">
-        <v>95.76</v>
+        <v>677.43999999999994</v>
       </c>
       <c r="K129" s="2">
-        <v>599.76</v>
+        <v>4242.9399999999996</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>23848680</v>
+        <v>361307</v>
       </c>
       <c r="B130" s="2">
-        <v>20220967</v>
+        <v>20221169</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D130" s="4">
-        <v>44701</v>
+        <v>44740</v>
       </c>
       <c r="E130" s="2">
         <v>0</v>
@@ -5719,22 +5613,22 @@
         <v>0</v>
       </c>
       <c r="G130" s="2">
-        <v>240</v>
+        <v>-2249.6</v>
       </c>
       <c r="H130" s="2">
-        <v>45.6</v>
+        <v>-427.42</v>
       </c>
       <c r="I130" s="2">
-        <v>240</v>
+        <v>-2249.6</v>
       </c>
       <c r="J130" s="2">
-        <v>45.6</v>
+        <v>-427.42</v>
       </c>
       <c r="K130" s="2">
-        <v>285.60000000000002</v>
+        <v>-2677.02</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -5742,13 +5636,13 @@
         <v>361307</v>
       </c>
       <c r="B131" s="2">
-        <v>20220968</v>
+        <v>20221170</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D131" s="4">
-        <v>44701</v>
+        <v>44739</v>
       </c>
       <c r="E131" s="2">
         <v>0</v>
@@ -5757,19 +5651,19 @@
         <v>0</v>
       </c>
       <c r="G131" s="2">
-        <v>1002</v>
+        <v>3992</v>
       </c>
       <c r="H131" s="2">
-        <v>190.38</v>
+        <v>758.48</v>
       </c>
       <c r="I131" s="2">
-        <v>1002</v>
+        <v>3992</v>
       </c>
       <c r="J131" s="2">
-        <v>190.38</v>
+        <v>758.48</v>
       </c>
       <c r="K131" s="2">
-        <v>1192.3800000000001</v>
+        <v>4750.4799999999996</v>
       </c>
       <c r="L131" s="3" t="s">
         <v>13</v>
@@ -5777,16 +5671,16 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>361307</v>
+        <v>38006973</v>
       </c>
       <c r="B132" s="2">
-        <v>20220969</v>
+        <v>20221171</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D132" s="4">
-        <v>44701</v>
+        <v>44740</v>
       </c>
       <c r="E132" s="2">
         <v>0</v>
@@ -5795,22 +5689,22 @@
         <v>0</v>
       </c>
       <c r="G132" s="2">
-        <v>36.35</v>
+        <v>726</v>
       </c>
       <c r="H132" s="2">
-        <v>6.91</v>
+        <v>137.94</v>
       </c>
       <c r="I132" s="2">
-        <v>36.35</v>
+        <v>726</v>
       </c>
       <c r="J132" s="2">
-        <v>6.91</v>
+        <v>137.94</v>
       </c>
       <c r="K132" s="2">
-        <v>43.260000000000005</v>
+        <v>863.94</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -5818,34 +5712,34 @@
         <v>361307</v>
       </c>
       <c r="B133" s="2">
-        <v>20220970</v>
+        <v>20221172</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D133" s="4">
-        <v>44701</v>
+        <v>44740</v>
       </c>
       <c r="E133" s="2">
-        <v>292</v>
+        <v>822</v>
       </c>
       <c r="F133" s="2">
-        <v>55.48</v>
+        <v>156.18</v>
       </c>
       <c r="G133" s="2">
-        <v>165</v>
+        <v>21498.5</v>
       </c>
       <c r="H133" s="2">
-        <v>31.35</v>
+        <v>4084.72</v>
       </c>
       <c r="I133" s="2">
-        <v>457</v>
+        <v>22320.5</v>
       </c>
       <c r="J133" s="2">
-        <v>86.83</v>
+        <v>4240.8999999999996</v>
       </c>
       <c r="K133" s="2">
-        <v>543.83000000000004</v>
+        <v>26561.4</v>
       </c>
       <c r="L133" s="3" t="s">
         <v>13</v>
@@ -5853,16 +5747,16 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>1582195</v>
+        <v>32543420</v>
       </c>
       <c r="B134" s="2">
-        <v>20220971</v>
+        <v>20221173</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="D134" s="4">
-        <v>44704</v>
+        <v>44740</v>
       </c>
       <c r="E134" s="2">
         <v>0</v>
@@ -5871,36 +5765,36 @@
         <v>0</v>
       </c>
       <c r="G134" s="2">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="H134" s="2">
-        <v>63.84</v>
+        <v>57</v>
       </c>
       <c r="I134" s="2">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="J134" s="2">
-        <v>63.84</v>
+        <v>57</v>
       </c>
       <c r="K134" s="2">
-        <v>399.84000000000003</v>
+        <v>357</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>45823856</v>
+        <v>361307</v>
       </c>
       <c r="B135" s="2">
-        <v>20220972</v>
+        <v>20221174</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D135" s="4">
-        <v>44704</v>
+        <v>44740</v>
       </c>
       <c r="E135" s="2">
         <v>0</v>
@@ -5909,22 +5803,22 @@
         <v>0</v>
       </c>
       <c r="G135" s="2">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="H135" s="2">
-        <v>12.54</v>
+        <v>23.37</v>
       </c>
       <c r="I135" s="2">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="J135" s="2">
-        <v>12.54</v>
+        <v>23.37</v>
       </c>
       <c r="K135" s="2">
-        <v>78.539999999999992</v>
+        <v>146.37</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -5932,34 +5826,34 @@
         <v>361307</v>
       </c>
       <c r="B136" s="2">
-        <v>20220973</v>
+        <v>20221175</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D136" s="4">
-        <v>44704</v>
+        <v>44740</v>
       </c>
       <c r="E136" s="2">
-        <v>0</v>
+        <v>148.75</v>
       </c>
       <c r="F136" s="2">
-        <v>0</v>
+        <v>28.26</v>
       </c>
       <c r="G136" s="2">
-        <v>-285</v>
+        <v>13873.5</v>
       </c>
       <c r="H136" s="2">
-        <v>-54.15</v>
+        <v>2635.96</v>
       </c>
       <c r="I136" s="2">
-        <v>-285</v>
+        <v>14022.25</v>
       </c>
       <c r="J136" s="2">
-        <v>-54.15</v>
+        <v>2664.2200000000003</v>
       </c>
       <c r="K136" s="2">
-        <v>-339.15</v>
+        <v>16686.47</v>
       </c>
       <c r="L136" s="3" t="s">
         <v>13</v>
@@ -5970,13 +5864,13 @@
         <v>361307</v>
       </c>
       <c r="B137" s="2">
-        <v>20220974</v>
+        <v>20221176</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D137" s="4">
-        <v>44704</v>
+        <v>44740</v>
       </c>
       <c r="E137" s="2">
         <v>0</v>
@@ -5985,19 +5879,19 @@
         <v>0</v>
       </c>
       <c r="G137" s="2">
-        <v>-114</v>
+        <v>117</v>
       </c>
       <c r="H137" s="2">
-        <v>-21.66</v>
+        <v>22.23</v>
       </c>
       <c r="I137" s="2">
-        <v>-114</v>
+        <v>117</v>
       </c>
       <c r="J137" s="2">
-        <v>-21.66</v>
+        <v>22.23</v>
       </c>
       <c r="K137" s="2">
-        <v>-135.66</v>
+        <v>139.22999999999999</v>
       </c>
       <c r="L137" s="3" t="s">
         <v>13</v>
@@ -6008,34 +5902,34 @@
         <v>361307</v>
       </c>
       <c r="B138" s="2">
-        <v>20220975</v>
+        <v>20221177</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D138" s="4">
-        <v>44704</v>
+        <v>44741</v>
       </c>
       <c r="E138" s="2">
-        <v>871.5</v>
+        <v>537.5</v>
       </c>
       <c r="F138" s="2">
-        <v>165.58</v>
+        <v>102.12</v>
       </c>
       <c r="G138" s="2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H138" s="2">
-        <v>8.74</v>
+        <v>0</v>
       </c>
       <c r="I138" s="2">
-        <v>917.5</v>
+        <v>537.5</v>
       </c>
       <c r="J138" s="2">
-        <v>174.32000000000002</v>
+        <v>102.12</v>
       </c>
       <c r="K138" s="2">
-        <v>1091.82</v>
+        <v>639.62</v>
       </c>
       <c r="L138" s="3" t="s">
         <v>13</v>
@@ -6043,40 +5937,40 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>361307</v>
+        <v>6710490</v>
       </c>
       <c r="B139" s="2">
-        <v>20220976</v>
+        <v>20221178</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D139" s="4">
-        <v>44704</v>
+        <v>44741</v>
       </c>
       <c r="E139" s="2">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="F139" s="2">
-        <v>204.25</v>
+        <v>0</v>
       </c>
       <c r="G139" s="2">
-        <v>525</v>
+        <v>144</v>
       </c>
       <c r="H139" s="2">
-        <v>99.75</v>
+        <v>27.36</v>
       </c>
       <c r="I139" s="2">
-        <v>1600</v>
+        <v>144</v>
       </c>
       <c r="J139" s="2">
-        <v>304</v>
+        <v>27.36</v>
       </c>
       <c r="K139" s="2">
-        <v>1904</v>
+        <v>171.36</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -6084,34 +5978,34 @@
         <v>361307</v>
       </c>
       <c r="B140" s="2">
-        <v>20220977</v>
+        <v>20221179</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="D140" s="4">
-        <v>44704</v>
+        <v>44741</v>
       </c>
       <c r="E140" s="2">
-        <v>0</v>
+        <v>178.5</v>
       </c>
       <c r="F140" s="2">
-        <v>0</v>
+        <v>33.92</v>
       </c>
       <c r="G140" s="2">
-        <v>881</v>
+        <v>11487.5</v>
       </c>
       <c r="H140" s="2">
-        <v>167.39</v>
+        <v>2182.62</v>
       </c>
       <c r="I140" s="2">
-        <v>881</v>
+        <v>11666</v>
       </c>
       <c r="J140" s="2">
-        <v>167.39</v>
+        <v>2216.54</v>
       </c>
       <c r="K140" s="2">
-        <v>1048.3899999999999</v>
+        <v>13882.54</v>
       </c>
       <c r="L140" s="3" t="s">
         <v>13</v>
@@ -6122,34 +6016,34 @@
         <v>361307</v>
       </c>
       <c r="B141" s="2">
-        <v>20220978</v>
+        <v>20221180</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D141" s="4">
-        <v>44704</v>
+        <v>44741</v>
       </c>
       <c r="E141" s="2">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F141" s="2">
-        <v>6.08</v>
+        <v>0</v>
       </c>
       <c r="G141" s="2">
-        <v>34.5</v>
+        <v>-387.90000000000003</v>
       </c>
       <c r="H141" s="2">
-        <v>6.56</v>
+        <v>-73.7</v>
       </c>
       <c r="I141" s="2">
-        <v>66.5</v>
+        <v>-387.90000000000003</v>
       </c>
       <c r="J141" s="2">
-        <v>12.64</v>
+        <v>-73.7</v>
       </c>
       <c r="K141" s="2">
-        <v>79.14</v>
+        <v>-461.6</v>
       </c>
       <c r="L141" s="3" t="s">
         <v>13</v>
@@ -6160,34 +6054,34 @@
         <v>361307</v>
       </c>
       <c r="B142" s="2">
-        <v>20220979</v>
+        <v>20221181</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="D142" s="4">
-        <v>44704</v>
+        <v>44741</v>
       </c>
       <c r="E142" s="2">
-        <v>1442</v>
+        <v>0</v>
       </c>
       <c r="F142" s="2">
-        <v>273.98</v>
+        <v>0</v>
       </c>
       <c r="G142" s="2">
-        <v>574.9</v>
+        <v>-3.25</v>
       </c>
       <c r="H142" s="2">
-        <v>109.23</v>
+        <v>-0.62</v>
       </c>
       <c r="I142" s="2">
-        <v>2016.9</v>
+        <v>-3.25</v>
       </c>
       <c r="J142" s="2">
-        <v>383.21000000000004</v>
+        <v>-0.62</v>
       </c>
       <c r="K142" s="2">
-        <v>2400.11</v>
+        <v>-3.87</v>
       </c>
       <c r="L142" s="3" t="s">
         <v>13</v>
@@ -6198,34 +6092,34 @@
         <v>361307</v>
       </c>
       <c r="B143" s="2">
-        <v>20220980</v>
+        <v>20221182</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="D143" s="4">
-        <v>44705</v>
+        <v>44741</v>
       </c>
       <c r="E143" s="2">
-        <v>0</v>
+        <v>416.5</v>
       </c>
       <c r="F143" s="2">
-        <v>0</v>
+        <v>79.14</v>
       </c>
       <c r="G143" s="2">
-        <v>1009.5</v>
+        <v>16459</v>
       </c>
       <c r="H143" s="2">
-        <v>191.8</v>
+        <v>3127.21</v>
       </c>
       <c r="I143" s="2">
-        <v>1009.5</v>
+        <v>16875.5</v>
       </c>
       <c r="J143" s="2">
-        <v>191.8</v>
+        <v>3206.35</v>
       </c>
       <c r="K143" s="2">
-        <v>1201.3</v>
+        <v>20081.849999999999</v>
       </c>
       <c r="L143" s="3" t="s">
         <v>13</v>
@@ -6233,40 +6127,40 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>361307</v>
+        <v>21224299</v>
       </c>
       <c r="B144" s="2">
-        <v>20220981</v>
+        <v>20221183</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D144" s="4">
-        <v>44705</v>
+        <v>44741</v>
       </c>
       <c r="E144" s="2">
-        <v>280</v>
+        <v>6431</v>
       </c>
       <c r="F144" s="2">
-        <v>53.2</v>
+        <v>1221.8900000000001</v>
       </c>
       <c r="G144" s="2">
-        <v>419.3</v>
+        <v>0</v>
       </c>
       <c r="H144" s="2">
-        <v>79.67</v>
+        <v>0</v>
       </c>
       <c r="I144" s="2">
-        <v>699.3</v>
+        <v>6431</v>
       </c>
       <c r="J144" s="2">
-        <v>132.87</v>
+        <v>1221.8900000000001</v>
       </c>
       <c r="K144" s="2">
-        <v>832.17</v>
+        <v>7652.89</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -6274,34 +6168,34 @@
         <v>361307</v>
       </c>
       <c r="B145" s="2">
-        <v>20220982</v>
+        <v>20221184</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D145" s="4">
-        <v>44705</v>
+        <v>44741</v>
       </c>
       <c r="E145" s="2">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="F145" s="2">
-        <v>81.7</v>
+        <v>0</v>
       </c>
       <c r="G145" s="2">
-        <v>167.5</v>
+        <v>250.5</v>
       </c>
       <c r="H145" s="2">
-        <v>31.82</v>
+        <v>47.6</v>
       </c>
       <c r="I145" s="2">
-        <v>597.5</v>
+        <v>250.5</v>
       </c>
       <c r="J145" s="2">
-        <v>113.52000000000001</v>
+        <v>47.6</v>
       </c>
       <c r="K145" s="2">
-        <v>711.02</v>
+        <v>298.10000000000002</v>
       </c>
       <c r="L145" s="3" t="s">
         <v>13</v>
@@ -6309,2174 +6203,81 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>13467556</v>
+        <v>37570469</v>
       </c>
       <c r="B146" s="2">
-        <v>20220983</v>
+        <v>20221185</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D146" s="4">
-        <v>44705</v>
+        <v>44741</v>
       </c>
       <c r="E146" s="2">
-        <v>438.95</v>
+        <v>0</v>
       </c>
       <c r="F146" s="2">
-        <v>83.4</v>
+        <v>0</v>
       </c>
       <c r="G146" s="2">
-        <v>0</v>
+        <v>5950.5999999999995</v>
       </c>
       <c r="H146" s="2">
-        <v>0</v>
+        <v>1130.6099999999999</v>
       </c>
       <c r="I146" s="2">
-        <v>438.95</v>
+        <v>5950.5999999999995</v>
       </c>
       <c r="J146" s="2">
-        <v>83.4</v>
+        <v>1130.6099999999999</v>
       </c>
       <c r="K146" s="2">
-        <v>522.35</v>
+        <v>7081.2099999999991</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>361307</v>
+        <v>37570469</v>
       </c>
       <c r="B147" s="2">
-        <v>20220984</v>
+        <v>20221186</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="D147" s="4">
-        <v>44705</v>
+        <v>44741</v>
       </c>
       <c r="E147" s="2">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="F147" s="2">
-        <v>34.58</v>
+        <v>0</v>
       </c>
       <c r="G147" s="2">
-        <v>0</v>
+        <v>3852.4</v>
       </c>
       <c r="H147" s="2">
-        <v>0</v>
+        <v>731.96</v>
       </c>
       <c r="I147" s="2">
-        <v>182</v>
+        <v>3852.4</v>
       </c>
       <c r="J147" s="2">
-        <v>34.58</v>
+        <v>731.96</v>
       </c>
       <c r="K147" s="2">
-        <v>216.57999999999998</v>
+        <v>4584.3600000000006</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
-        <v>13467556</v>
-      </c>
-      <c r="B148" s="2">
-        <v>20220985</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D148" s="4">
-        <v>44705</v>
-      </c>
-      <c r="E148" s="2">
-        <v>303.40000000000003</v>
-      </c>
-      <c r="F148" s="2">
-        <v>57.65</v>
-      </c>
-      <c r="G148" s="2">
-        <v>0</v>
-      </c>
-      <c r="H148" s="2">
-        <v>0</v>
-      </c>
-      <c r="I148" s="2">
-        <v>303.40000000000003</v>
-      </c>
-      <c r="J148" s="2">
-        <v>57.65</v>
-      </c>
-      <c r="K148" s="2">
-        <v>361.05</v>
-      </c>
-      <c r="L148" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B149" s="2">
-        <v>20220986</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D149" s="4">
-        <v>44705</v>
-      </c>
-      <c r="E149" s="2">
-        <v>1075</v>
-      </c>
-      <c r="F149" s="2">
-        <v>204.25</v>
-      </c>
-      <c r="G149" s="2">
-        <v>800</v>
-      </c>
-      <c r="H149" s="2">
-        <v>152</v>
-      </c>
-      <c r="I149" s="2">
-        <v>1875</v>
-      </c>
-      <c r="J149" s="2">
-        <v>356.25</v>
-      </c>
-      <c r="K149" s="2">
-        <v>2231.25</v>
-      </c>
-      <c r="L149" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B150" s="2">
-        <v>20220987</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D150" s="4">
-        <v>44705</v>
-      </c>
-      <c r="E150" s="2">
-        <v>537.5</v>
-      </c>
-      <c r="F150" s="2">
-        <v>102.12</v>
-      </c>
-      <c r="G150" s="2">
-        <v>1070.4000000000001</v>
-      </c>
-      <c r="H150" s="2">
-        <v>203.38</v>
-      </c>
-      <c r="I150" s="2">
-        <v>1607.9</v>
-      </c>
-      <c r="J150" s="2">
-        <v>305.5</v>
-      </c>
-      <c r="K150" s="2">
-        <v>1913.4</v>
-      </c>
-      <c r="L150" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B151" s="2">
-        <v>20220988</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D151" s="4">
-        <v>44705</v>
-      </c>
-      <c r="E151" s="2">
-        <v>138.25</v>
-      </c>
-      <c r="F151" s="2">
-        <v>26.27</v>
-      </c>
-      <c r="G151" s="2">
-        <v>1624.8</v>
-      </c>
-      <c r="H151" s="2">
-        <v>308.70999999999998</v>
-      </c>
-      <c r="I151" s="2">
-        <v>1763.05</v>
-      </c>
-      <c r="J151" s="2">
-        <v>334.97999999999996</v>
-      </c>
-      <c r="K151" s="2">
-        <v>2098.0299999999997</v>
-      </c>
-      <c r="L151" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
-        <v>13393807</v>
-      </c>
-      <c r="B152" s="2">
-        <v>20220989</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D152" s="4">
-        <v>44705</v>
-      </c>
-      <c r="E152" s="2">
-        <v>0</v>
-      </c>
-      <c r="F152" s="2">
-        <v>0</v>
-      </c>
-      <c r="G152" s="2">
-        <v>357</v>
-      </c>
-      <c r="H152" s="2">
-        <v>67.83</v>
-      </c>
-      <c r="I152" s="2">
-        <v>357</v>
-      </c>
-      <c r="J152" s="2">
-        <v>67.83</v>
-      </c>
-      <c r="K152" s="2">
-        <v>424.83</v>
-      </c>
-      <c r="L152" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B153" s="2">
-        <v>20220990</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D153" s="4">
-        <v>44705</v>
-      </c>
-      <c r="E153" s="2">
-        <v>0</v>
-      </c>
-      <c r="F153" s="2">
-        <v>0</v>
-      </c>
-      <c r="G153" s="2">
-        <v>-142.5</v>
-      </c>
-      <c r="H153" s="2">
-        <v>-27.08</v>
-      </c>
-      <c r="I153" s="2">
-        <v>-142.5</v>
-      </c>
-      <c r="J153" s="2">
-        <v>-27.08</v>
-      </c>
-      <c r="K153" s="2">
-        <v>-169.57999999999998</v>
-      </c>
-      <c r="L153" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B154" s="2">
-        <v>20220991</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D154" s="4">
-        <v>44705</v>
-      </c>
-      <c r="E154" s="2">
-        <v>325</v>
-      </c>
-      <c r="F154" s="2">
-        <v>61.75</v>
-      </c>
-      <c r="G154" s="2">
-        <v>970</v>
-      </c>
-      <c r="H154" s="2">
-        <v>184.3</v>
-      </c>
-      <c r="I154" s="2">
-        <v>1295</v>
-      </c>
-      <c r="J154" s="2">
-        <v>246.05</v>
-      </c>
-      <c r="K154" s="2">
-        <v>1541.05</v>
-      </c>
-      <c r="L154" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B155" s="2">
-        <v>20220992</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D155" s="4">
-        <v>44706</v>
-      </c>
-      <c r="E155" s="2">
-        <v>0</v>
-      </c>
-      <c r="F155" s="2">
-        <v>0</v>
-      </c>
-      <c r="G155" s="2">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="H155" s="2">
-        <v>12.24</v>
-      </c>
-      <c r="I155" s="2">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="J155" s="2">
-        <v>12.24</v>
-      </c>
-      <c r="K155" s="2">
-        <v>76.64</v>
-      </c>
-      <c r="L155" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
-        <v>14240097</v>
-      </c>
-      <c r="B156" s="2">
-        <v>20220993</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D156" s="4">
-        <v>44706</v>
-      </c>
-      <c r="E156" s="2">
-        <v>0</v>
-      </c>
-      <c r="F156" s="2">
-        <v>0</v>
-      </c>
-      <c r="G156" s="2">
-        <v>832</v>
-      </c>
-      <c r="H156" s="2">
-        <v>158.08000000000001</v>
-      </c>
-      <c r="I156" s="2">
-        <v>832</v>
-      </c>
-      <c r="J156" s="2">
-        <v>158.08000000000001</v>
-      </c>
-      <c r="K156" s="2">
-        <v>990.08</v>
-      </c>
-      <c r="L156" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B157" s="2">
-        <v>20220994</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D157" s="4">
-        <v>44706</v>
-      </c>
-      <c r="E157" s="2">
-        <v>273</v>
-      </c>
-      <c r="F157" s="2">
-        <v>51.87</v>
-      </c>
-      <c r="G157" s="2">
-        <v>238.6</v>
-      </c>
-      <c r="H157" s="2">
-        <v>45.33</v>
-      </c>
-      <c r="I157" s="2">
-        <v>511.6</v>
-      </c>
-      <c r="J157" s="2">
-        <v>97.199999999999989</v>
-      </c>
-      <c r="K157" s="2">
-        <v>608.79999999999995</v>
-      </c>
-      <c r="L157" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
-        <v>41247963</v>
-      </c>
-      <c r="B158" s="2">
-        <v>20220995</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D158" s="4">
-        <v>44706</v>
-      </c>
-      <c r="E158" s="2">
-        <v>0</v>
-      </c>
-      <c r="F158" s="2">
-        <v>0</v>
-      </c>
-      <c r="G158" s="2">
-        <v>300</v>
-      </c>
-      <c r="H158" s="2">
-        <v>57</v>
-      </c>
-      <c r="I158" s="2">
-        <v>300</v>
-      </c>
-      <c r="J158" s="2">
-        <v>57</v>
-      </c>
-      <c r="K158" s="2">
-        <v>357</v>
-      </c>
-      <c r="L158" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
-        <v>41848700</v>
-      </c>
-      <c r="B159" s="2">
-        <v>20220996</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D159" s="4">
-        <v>44706</v>
-      </c>
-      <c r="E159" s="2">
-        <v>0</v>
-      </c>
-      <c r="F159" s="2">
-        <v>0</v>
-      </c>
-      <c r="G159" s="2">
-        <v>650</v>
-      </c>
-      <c r="H159" s="2">
-        <v>123.5</v>
-      </c>
-      <c r="I159" s="2">
-        <v>650</v>
-      </c>
-      <c r="J159" s="2">
-        <v>123.5</v>
-      </c>
-      <c r="K159" s="2">
-        <v>773.5</v>
-      </c>
-      <c r="L159" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B160" s="2">
-        <v>20220997</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D160" s="4">
-        <v>44706</v>
-      </c>
-      <c r="E160" s="2">
-        <v>1075</v>
-      </c>
-      <c r="F160" s="2">
-        <v>204.25</v>
-      </c>
-      <c r="G160" s="2">
-        <v>305.5</v>
-      </c>
-      <c r="H160" s="2">
-        <v>58.04</v>
-      </c>
-      <c r="I160" s="2">
-        <v>1380.5</v>
-      </c>
-      <c r="J160" s="2">
-        <v>262.29000000000002</v>
-      </c>
-      <c r="K160" s="2">
-        <v>1642.79</v>
-      </c>
-      <c r="L160" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B161" s="2">
-        <v>20220998</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D161" s="4">
-        <v>44706</v>
-      </c>
-      <c r="E161" s="2">
-        <v>950.8</v>
-      </c>
-      <c r="F161" s="2">
-        <v>180.65</v>
-      </c>
-      <c r="G161" s="2">
-        <v>110</v>
-      </c>
-      <c r="H161" s="2">
-        <v>20.9</v>
-      </c>
-      <c r="I161" s="2">
-        <v>1060.8</v>
-      </c>
-      <c r="J161" s="2">
-        <v>201.55</v>
-      </c>
-      <c r="K161" s="2">
-        <v>1262.3499999999999</v>
-      </c>
-      <c r="L161" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B162" s="2">
-        <v>20220999</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D162" s="4">
-        <v>44706</v>
-      </c>
-      <c r="E162" s="2">
-        <v>0</v>
-      </c>
-      <c r="F162" s="2">
-        <v>0</v>
-      </c>
-      <c r="G162" s="2">
-        <v>1094</v>
-      </c>
-      <c r="H162" s="2">
-        <v>207.86</v>
-      </c>
-      <c r="I162" s="2">
-        <v>1094</v>
-      </c>
-      <c r="J162" s="2">
-        <v>207.86</v>
-      </c>
-      <c r="K162" s="2">
-        <v>1301.8600000000001</v>
-      </c>
-      <c r="L162" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
-        <v>20752873</v>
-      </c>
-      <c r="B163" s="2">
-        <v>20221000</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D163" s="4">
-        <v>44706</v>
-      </c>
-      <c r="E163" s="2">
-        <v>3080.0000000000005</v>
-      </c>
-      <c r="F163" s="2">
-        <v>585.20000000000005</v>
-      </c>
-      <c r="G163" s="2">
-        <v>0</v>
-      </c>
-      <c r="H163" s="2">
-        <v>0</v>
-      </c>
-      <c r="I163" s="2">
-        <v>3080.0000000000005</v>
-      </c>
-      <c r="J163" s="2">
-        <v>585.20000000000005</v>
-      </c>
-      <c r="K163" s="2">
-        <v>3665.2000000000007</v>
-      </c>
-      <c r="L163" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
-        <v>27675131</v>
-      </c>
-      <c r="B164" s="2">
-        <v>20221001</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D164" s="4">
-        <v>44706</v>
-      </c>
-      <c r="E164" s="2">
-        <v>0</v>
-      </c>
-      <c r="F164" s="2">
-        <v>0</v>
-      </c>
-      <c r="G164" s="2">
-        <v>13600</v>
-      </c>
-      <c r="H164" s="2">
-        <v>2584</v>
-      </c>
-      <c r="I164" s="2">
-        <v>13600</v>
-      </c>
-      <c r="J164" s="2">
-        <v>2584</v>
-      </c>
-      <c r="K164" s="2">
-        <v>16184</v>
-      </c>
-      <c r="L164" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
-        <v>15413099</v>
-      </c>
-      <c r="B165" s="2">
-        <v>20221002</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D165" s="4">
-        <v>44706</v>
-      </c>
-      <c r="E165" s="2">
-        <v>60</v>
-      </c>
-      <c r="F165" s="2">
-        <v>11.4</v>
-      </c>
-      <c r="G165" s="2">
-        <v>67.5</v>
-      </c>
-      <c r="H165" s="2">
-        <v>12.82</v>
-      </c>
-      <c r="I165" s="2">
-        <v>127.5</v>
-      </c>
-      <c r="J165" s="2">
-        <v>24.22</v>
-      </c>
-      <c r="K165" s="2">
-        <v>151.72</v>
-      </c>
-      <c r="L165" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
-        <v>15413099</v>
-      </c>
-      <c r="B166" s="2">
-        <v>20221003</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D166" s="4">
-        <v>44706</v>
-      </c>
-      <c r="E166" s="2">
-        <v>1830</v>
-      </c>
-      <c r="F166" s="2">
-        <v>347.7</v>
-      </c>
-      <c r="G166" s="2">
-        <v>0</v>
-      </c>
-      <c r="H166" s="2">
-        <v>0</v>
-      </c>
-      <c r="I166" s="2">
-        <v>1830</v>
-      </c>
-      <c r="J166" s="2">
-        <v>347.7</v>
-      </c>
-      <c r="K166" s="2">
-        <v>2177.6999999999998</v>
-      </c>
-      <c r="L166" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B167" s="2">
-        <v>20221004</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D167" s="4">
-        <v>44706</v>
-      </c>
-      <c r="E167" s="2">
-        <v>0</v>
-      </c>
-      <c r="F167" s="2">
-        <v>0</v>
-      </c>
-      <c r="G167" s="2">
-        <v>582</v>
-      </c>
-      <c r="H167" s="2">
-        <v>110.58</v>
-      </c>
-      <c r="I167" s="2">
-        <v>582</v>
-      </c>
-      <c r="J167" s="2">
-        <v>110.58</v>
-      </c>
-      <c r="K167" s="2">
-        <v>692.58</v>
-      </c>
-      <c r="L167" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B168" s="2">
-        <v>20221005</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D168" s="4">
-        <v>44706</v>
-      </c>
-      <c r="E168" s="2">
-        <v>247.5</v>
-      </c>
-      <c r="F168" s="2">
-        <v>47.03</v>
-      </c>
-      <c r="G168" s="2">
-        <v>620.4</v>
-      </c>
-      <c r="H168" s="2">
-        <v>117.88</v>
-      </c>
-      <c r="I168" s="2">
-        <v>867.9</v>
-      </c>
-      <c r="J168" s="2">
-        <v>164.91</v>
-      </c>
-      <c r="K168" s="2">
-        <v>1032.81</v>
-      </c>
-      <c r="L168" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
-        <v>27612842</v>
-      </c>
-      <c r="B169" s="2">
-        <v>20221006</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D169" s="4">
-        <v>44706</v>
-      </c>
-      <c r="E169" s="2">
-        <v>0</v>
-      </c>
-      <c r="F169" s="2">
-        <v>0</v>
-      </c>
-      <c r="G169" s="2">
-        <v>198</v>
-      </c>
-      <c r="H169" s="2">
-        <v>37.619999999999997</v>
-      </c>
-      <c r="I169" s="2">
-        <v>198</v>
-      </c>
-      <c r="J169" s="2">
-        <v>37.619999999999997</v>
-      </c>
-      <c r="K169" s="2">
-        <v>235.62</v>
-      </c>
-      <c r="L169" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B170" s="2">
-        <v>20221007</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D170" s="4">
-        <v>44707</v>
-      </c>
-      <c r="E170" s="2">
-        <v>843.75</v>
-      </c>
-      <c r="F170" s="2">
-        <v>160.31</v>
-      </c>
-      <c r="G170" s="2">
-        <v>1114.5</v>
-      </c>
-      <c r="H170" s="2">
-        <v>211.76</v>
-      </c>
-      <c r="I170" s="2">
-        <v>1958.25</v>
-      </c>
-      <c r="J170" s="2">
-        <v>372.07</v>
-      </c>
-      <c r="K170" s="2">
-        <v>2330.3200000000002</v>
-      </c>
-      <c r="L170" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B171" s="2">
-        <v>20221008</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D171" s="4">
-        <v>44707</v>
-      </c>
-      <c r="E171" s="2">
-        <v>645</v>
-      </c>
-      <c r="F171" s="2">
-        <v>122.55</v>
-      </c>
-      <c r="G171" s="2">
-        <v>472.5</v>
-      </c>
-      <c r="H171" s="2">
-        <v>89.78</v>
-      </c>
-      <c r="I171" s="2">
-        <v>1117.5</v>
-      </c>
-      <c r="J171" s="2">
-        <v>212.32999999999998</v>
-      </c>
-      <c r="K171" s="2">
-        <v>1329.83</v>
-      </c>
-      <c r="L171" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B172" s="2">
-        <v>20221009</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D172" s="4">
-        <v>44707</v>
-      </c>
-      <c r="E172" s="2">
-        <v>1030</v>
-      </c>
-      <c r="F172" s="2">
-        <v>195.7</v>
-      </c>
-      <c r="G172" s="2">
-        <v>850.90000000000009</v>
-      </c>
-      <c r="H172" s="2">
-        <v>161.66999999999999</v>
-      </c>
-      <c r="I172" s="2">
-        <v>1880.9</v>
-      </c>
-      <c r="J172" s="2">
-        <v>357.37</v>
-      </c>
-      <c r="K172" s="2">
-        <v>2238.27</v>
-      </c>
-      <c r="L172" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B173" s="2">
-        <v>20221010</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D173" s="4">
-        <v>44707</v>
-      </c>
-      <c r="E173" s="2">
-        <v>55.000000000000007</v>
-      </c>
-      <c r="F173" s="2">
-        <v>10.45</v>
-      </c>
-      <c r="G173" s="2">
-        <v>334</v>
-      </c>
-      <c r="H173" s="2">
-        <v>63.46</v>
-      </c>
-      <c r="I173" s="2">
-        <v>389</v>
-      </c>
-      <c r="J173" s="2">
-        <v>73.91</v>
-      </c>
-      <c r="K173" s="2">
-        <v>462.90999999999997</v>
-      </c>
-      <c r="L173" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
-        <v>24630518</v>
-      </c>
-      <c r="B174" s="2">
-        <v>20221011</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D174" s="4">
-        <v>44707</v>
-      </c>
-      <c r="E174" s="2">
-        <v>0</v>
-      </c>
-      <c r="F174" s="2">
-        <v>0</v>
-      </c>
-      <c r="G174" s="2">
-        <v>1400</v>
-      </c>
-      <c r="H174" s="2">
-        <v>266</v>
-      </c>
-      <c r="I174" s="2">
-        <v>1400</v>
-      </c>
-      <c r="J174" s="2">
-        <v>266</v>
-      </c>
-      <c r="K174" s="2">
-        <v>1666</v>
-      </c>
-      <c r="L174" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B175" s="2">
-        <v>20221012</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D175" s="4">
-        <v>44707</v>
-      </c>
-      <c r="E175" s="2">
-        <v>0</v>
-      </c>
-      <c r="F175" s="2">
-        <v>0</v>
-      </c>
-      <c r="G175" s="2">
-        <v>-406.6</v>
-      </c>
-      <c r="H175" s="2">
-        <v>-77.25</v>
-      </c>
-      <c r="I175" s="2">
-        <v>-406.6</v>
-      </c>
-      <c r="J175" s="2">
-        <v>-77.25</v>
-      </c>
-      <c r="K175" s="2">
-        <v>-483.85</v>
-      </c>
-      <c r="L175" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B176" s="2">
-        <v>20221013</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D176" s="4">
-        <v>44707</v>
-      </c>
-      <c r="E176" s="2">
-        <v>0</v>
-      </c>
-      <c r="F176" s="2">
-        <v>0</v>
-      </c>
-      <c r="G176" s="2">
-        <v>-10.26</v>
-      </c>
-      <c r="H176" s="2">
-        <v>-1.95</v>
-      </c>
-      <c r="I176" s="2">
-        <v>-10.26</v>
-      </c>
-      <c r="J176" s="2">
-        <v>-1.95</v>
-      </c>
-      <c r="K176" s="2">
-        <v>-12.209999999999999</v>
-      </c>
-      <c r="L176" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B177" s="2">
-        <v>20221014</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D177" s="4">
-        <v>44707</v>
-      </c>
-      <c r="E177" s="2">
-        <v>645</v>
-      </c>
-      <c r="F177" s="2">
-        <v>122.55</v>
-      </c>
-      <c r="G177" s="2">
-        <v>238</v>
-      </c>
-      <c r="H177" s="2">
-        <v>45.22</v>
-      </c>
-      <c r="I177" s="2">
-        <v>883</v>
-      </c>
-      <c r="J177" s="2">
-        <v>167.76999999999998</v>
-      </c>
-      <c r="K177" s="2">
-        <v>1050.77</v>
-      </c>
-      <c r="L177" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B178" s="2">
-        <v>20221015</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D178" s="4">
-        <v>44707</v>
-      </c>
-      <c r="E178" s="2">
-        <v>176.25</v>
-      </c>
-      <c r="F178" s="2">
-        <v>33.49</v>
-      </c>
-      <c r="G178" s="2">
-        <v>0</v>
-      </c>
-      <c r="H178" s="2">
-        <v>0</v>
-      </c>
-      <c r="I178" s="2">
-        <v>176.25</v>
-      </c>
-      <c r="J178" s="2">
-        <v>33.49</v>
-      </c>
-      <c r="K178" s="2">
-        <v>209.74</v>
-      </c>
-      <c r="L178" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B179" s="2">
-        <v>20221016</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D179" s="4">
-        <v>44708</v>
-      </c>
-      <c r="E179" s="2">
-        <v>1336</v>
-      </c>
-      <c r="F179" s="2">
-        <v>253.84</v>
-      </c>
-      <c r="G179" s="2">
-        <v>59.5</v>
-      </c>
-      <c r="H179" s="2">
-        <v>11.3</v>
-      </c>
-      <c r="I179" s="2">
-        <v>1395.5</v>
-      </c>
-      <c r="J179" s="2">
-        <v>265.14</v>
-      </c>
-      <c r="K179" s="2">
-        <v>1660.6399999999999</v>
-      </c>
-      <c r="L179" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B180" s="2">
-        <v>20221017</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D180" s="4">
-        <v>44708</v>
-      </c>
-      <c r="E180" s="2">
-        <v>0</v>
-      </c>
-      <c r="F180" s="2">
-        <v>0</v>
-      </c>
-      <c r="G180" s="2">
-        <v>263.89999999999998</v>
-      </c>
-      <c r="H180" s="2">
-        <v>50.14</v>
-      </c>
-      <c r="I180" s="2">
-        <v>263.89999999999998</v>
-      </c>
-      <c r="J180" s="2">
-        <v>50.14</v>
-      </c>
-      <c r="K180" s="2">
-        <v>314.03999999999996</v>
-      </c>
-      <c r="L180" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B181" s="2">
-        <v>20221018</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D181" s="4">
-        <v>44708</v>
-      </c>
-      <c r="E181" s="2">
-        <v>0</v>
-      </c>
-      <c r="F181" s="2">
-        <v>0</v>
-      </c>
-      <c r="G181" s="2">
-        <v>264</v>
-      </c>
-      <c r="H181" s="2">
-        <v>50.16</v>
-      </c>
-      <c r="I181" s="2">
-        <v>264</v>
-      </c>
-      <c r="J181" s="2">
-        <v>50.16</v>
-      </c>
-      <c r="K181" s="2">
-        <v>314.15999999999997</v>
-      </c>
-      <c r="L181" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B182" s="2">
-        <v>20221019</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D182" s="4">
-        <v>44711</v>
-      </c>
-      <c r="E182" s="2">
-        <v>135</v>
-      </c>
-      <c r="F182" s="2">
-        <v>25.65</v>
-      </c>
-      <c r="G182" s="2">
-        <v>276</v>
-      </c>
-      <c r="H182" s="2">
-        <v>52.44</v>
-      </c>
-      <c r="I182" s="2">
-        <v>411</v>
-      </c>
-      <c r="J182" s="2">
-        <v>78.09</v>
-      </c>
-      <c r="K182" s="2">
-        <v>489.09000000000003</v>
-      </c>
-      <c r="L182" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B183" s="2">
-        <v>20221020</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D183" s="4">
-        <v>44711</v>
-      </c>
-      <c r="E183" s="2">
-        <v>340</v>
-      </c>
-      <c r="F183" s="2">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="G183" s="2">
-        <v>961.8</v>
-      </c>
-      <c r="H183" s="2">
-        <v>182.74</v>
-      </c>
-      <c r="I183" s="2">
-        <v>1301.8</v>
-      </c>
-      <c r="J183" s="2">
-        <v>247.34</v>
-      </c>
-      <c r="K183" s="2">
-        <v>1549.1399999999999</v>
-      </c>
-      <c r="L183" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B184" s="2">
-        <v>20221021</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D184" s="4">
-        <v>44711</v>
-      </c>
-      <c r="E184" s="2">
-        <v>645</v>
-      </c>
-      <c r="F184" s="2">
-        <v>122.55</v>
-      </c>
-      <c r="G184" s="2">
-        <v>0</v>
-      </c>
-      <c r="H184" s="2">
-        <v>0</v>
-      </c>
-      <c r="I184" s="2">
-        <v>645</v>
-      </c>
-      <c r="J184" s="2">
-        <v>122.55</v>
-      </c>
-      <c r="K184" s="2">
-        <v>767.55</v>
-      </c>
-      <c r="L184" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B185" s="2">
-        <v>20221022</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D185" s="4">
-        <v>44711</v>
-      </c>
-      <c r="E185" s="2">
-        <v>485</v>
-      </c>
-      <c r="F185" s="2">
-        <v>92.15</v>
-      </c>
-      <c r="G185" s="2">
-        <v>512</v>
-      </c>
-      <c r="H185" s="2">
-        <v>97.28</v>
-      </c>
-      <c r="I185" s="2">
-        <v>997</v>
-      </c>
-      <c r="J185" s="2">
-        <v>189.43</v>
-      </c>
-      <c r="K185" s="2">
-        <v>1186.43</v>
-      </c>
-      <c r="L185" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
-        <v>13467556</v>
-      </c>
-      <c r="B186" s="2">
-        <v>20221023</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D186" s="4">
-        <v>44711</v>
-      </c>
-      <c r="E186" s="2">
-        <v>432.32000000000005</v>
-      </c>
-      <c r="F186" s="2">
-        <v>82.14</v>
-      </c>
-      <c r="G186" s="2">
-        <v>0</v>
-      </c>
-      <c r="H186" s="2">
-        <v>0</v>
-      </c>
-      <c r="I186" s="2">
-        <v>432.32000000000005</v>
-      </c>
-      <c r="J186" s="2">
-        <v>82.14</v>
-      </c>
-      <c r="K186" s="2">
-        <v>514.46</v>
-      </c>
-      <c r="L186" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B187" s="2">
-        <v>20221024</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D187" s="4">
-        <v>44711</v>
-      </c>
-      <c r="E187" s="2">
-        <v>1320</v>
-      </c>
-      <c r="F187" s="2">
-        <v>250.8</v>
-      </c>
-      <c r="G187" s="2">
-        <v>194</v>
-      </c>
-      <c r="H187" s="2">
-        <v>36.86</v>
-      </c>
-      <c r="I187" s="2">
-        <v>1514</v>
-      </c>
-      <c r="J187" s="2">
-        <v>287.66000000000003</v>
-      </c>
-      <c r="K187" s="2">
-        <v>1801.66</v>
-      </c>
-      <c r="L187" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B188" s="2">
-        <v>20221025</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D188" s="4">
-        <v>44711</v>
-      </c>
-      <c r="E188" s="2">
-        <v>595.5</v>
-      </c>
-      <c r="F188" s="2">
-        <v>113.14</v>
-      </c>
-      <c r="G188" s="2">
-        <v>350</v>
-      </c>
-      <c r="H188" s="2">
-        <v>66.5</v>
-      </c>
-      <c r="I188" s="2">
-        <v>945.5</v>
-      </c>
-      <c r="J188" s="2">
-        <v>179.64</v>
-      </c>
-      <c r="K188" s="2">
-        <v>1125.1399999999999</v>
-      </c>
-      <c r="L188" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B189" s="2">
-        <v>20221026</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D189" s="4">
-        <v>44712</v>
-      </c>
-      <c r="E189" s="2">
-        <v>2100</v>
-      </c>
-      <c r="F189" s="2">
-        <v>399</v>
-      </c>
-      <c r="G189" s="2">
-        <v>0</v>
-      </c>
-      <c r="H189" s="2">
-        <v>0</v>
-      </c>
-      <c r="I189" s="2">
-        <v>2100</v>
-      </c>
-      <c r="J189" s="2">
-        <v>399</v>
-      </c>
-      <c r="K189" s="2">
-        <v>2499</v>
-      </c>
-      <c r="L189" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B190" s="2">
-        <v>20221027</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D190" s="4">
-        <v>44712</v>
-      </c>
-      <c r="E190" s="2">
-        <v>32</v>
-      </c>
-      <c r="F190" s="2">
-        <v>6.08</v>
-      </c>
-      <c r="G190" s="2">
-        <v>704.4</v>
-      </c>
-      <c r="H190" s="2">
-        <v>133.84</v>
-      </c>
-      <c r="I190" s="2">
-        <v>736.4</v>
-      </c>
-      <c r="J190" s="2">
-        <v>139.92000000000002</v>
-      </c>
-      <c r="K190" s="2">
-        <v>876.31999999999994</v>
-      </c>
-      <c r="L190" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B191" s="2">
-        <v>20221028</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D191" s="4">
-        <v>44712</v>
-      </c>
-      <c r="E191" s="2">
-        <v>27.5</v>
-      </c>
-      <c r="F191" s="2">
-        <v>5.22</v>
-      </c>
-      <c r="G191" s="2">
-        <v>347</v>
-      </c>
-      <c r="H191" s="2">
-        <v>65.930000000000007</v>
-      </c>
-      <c r="I191" s="2">
-        <v>374.5</v>
-      </c>
-      <c r="J191" s="2">
-        <v>71.150000000000006</v>
-      </c>
-      <c r="K191" s="2">
-        <v>445.65</v>
-      </c>
-      <c r="L191" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B192" s="2">
-        <v>20221029</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D192" s="4">
-        <v>44712</v>
-      </c>
-      <c r="E192" s="2">
-        <v>402.5</v>
-      </c>
-      <c r="F192" s="2">
-        <v>76.47</v>
-      </c>
-      <c r="G192" s="2">
-        <v>0</v>
-      </c>
-      <c r="H192" s="2">
-        <v>0</v>
-      </c>
-      <c r="I192" s="2">
-        <v>402.5</v>
-      </c>
-      <c r="J192" s="2">
-        <v>76.47</v>
-      </c>
-      <c r="K192" s="2">
-        <v>478.97</v>
-      </c>
-      <c r="L192" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B193" s="2">
-        <v>20221030</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D193" s="4">
-        <v>44712</v>
-      </c>
-      <c r="E193" s="2">
-        <v>1202</v>
-      </c>
-      <c r="F193" s="2">
-        <v>228.38</v>
-      </c>
-      <c r="G193" s="2">
-        <v>518</v>
-      </c>
-      <c r="H193" s="2">
-        <v>98.42</v>
-      </c>
-      <c r="I193" s="2">
-        <v>1720</v>
-      </c>
-      <c r="J193" s="2">
-        <v>326.8</v>
-      </c>
-      <c r="K193" s="2">
-        <v>2046.8</v>
-      </c>
-      <c r="L193" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
-        <v>13467556</v>
-      </c>
-      <c r="B194" s="2">
-        <v>20221031</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D194" s="4">
-        <v>44712</v>
-      </c>
-      <c r="E194" s="2">
-        <v>552.62</v>
-      </c>
-      <c r="F194" s="2">
-        <v>105</v>
-      </c>
-      <c r="G194" s="2">
-        <v>0</v>
-      </c>
-      <c r="H194" s="2">
-        <v>0</v>
-      </c>
-      <c r="I194" s="2">
-        <v>552.62</v>
-      </c>
-      <c r="J194" s="2">
-        <v>105</v>
-      </c>
-      <c r="K194" s="2">
-        <v>657.62</v>
-      </c>
-      <c r="L194" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B195" s="2">
-        <v>20221032</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D195" s="4">
-        <v>44712</v>
-      </c>
-      <c r="E195" s="2">
-        <v>668</v>
-      </c>
-      <c r="F195" s="2">
-        <v>126.92</v>
-      </c>
-      <c r="G195" s="2">
-        <v>886</v>
-      </c>
-      <c r="H195" s="2">
-        <v>168.34</v>
-      </c>
-      <c r="I195" s="2">
-        <v>1554</v>
-      </c>
-      <c r="J195" s="2">
-        <v>295.26</v>
-      </c>
-      <c r="K195" s="2">
-        <v>1849.26</v>
-      </c>
-      <c r="L195" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
-        <v>36359200</v>
-      </c>
-      <c r="B196" s="2">
-        <v>20221033</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D196" s="4">
-        <v>44712</v>
-      </c>
-      <c r="E196" s="2">
-        <v>540</v>
-      </c>
-      <c r="F196" s="2">
-        <v>102.6</v>
-      </c>
-      <c r="G196" s="2">
-        <v>1230</v>
-      </c>
-      <c r="H196" s="2">
-        <v>233.7</v>
-      </c>
-      <c r="I196" s="2">
-        <v>1770</v>
-      </c>
-      <c r="J196" s="2">
-        <v>336.29999999999995</v>
-      </c>
-      <c r="K196" s="2">
-        <v>2106.3000000000002</v>
-      </c>
-      <c r="L196" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
-        <v>15413099</v>
-      </c>
-      <c r="B197" s="2">
-        <v>20221034</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D197" s="4">
-        <v>44712</v>
-      </c>
-      <c r="E197" s="2">
-        <v>184.35000000000002</v>
-      </c>
-      <c r="F197" s="2">
-        <v>35.03</v>
-      </c>
-      <c r="G197" s="2">
-        <v>0</v>
-      </c>
-      <c r="H197" s="2">
-        <v>0</v>
-      </c>
-      <c r="I197" s="2">
-        <v>184.35000000000002</v>
-      </c>
-      <c r="J197" s="2">
-        <v>35.03</v>
-      </c>
-      <c r="K197" s="2">
-        <v>219.38000000000002</v>
-      </c>
-      <c r="L197" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
-        <v>15413099</v>
-      </c>
-      <c r="B198" s="2">
-        <v>20221035</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D198" s="4">
-        <v>44712</v>
-      </c>
-      <c r="E198" s="2">
-        <v>175</v>
-      </c>
-      <c r="F198" s="2">
-        <v>33.25</v>
-      </c>
-      <c r="G198" s="2">
-        <v>8010</v>
-      </c>
-      <c r="H198" s="2">
-        <v>1521.9</v>
-      </c>
-      <c r="I198" s="2">
-        <v>8185</v>
-      </c>
-      <c r="J198" s="2">
-        <v>1555.15</v>
-      </c>
-      <c r="K198" s="2">
-        <v>9740.15</v>
-      </c>
-      <c r="L198" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
-        <v>43333343</v>
-      </c>
-      <c r="B199" s="2">
-        <v>20221036</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D199" s="4">
-        <v>44712</v>
-      </c>
-      <c r="E199" s="2">
-        <v>165</v>
-      </c>
-      <c r="F199" s="2">
-        <v>31.35</v>
-      </c>
-      <c r="G199" s="2">
-        <v>60</v>
-      </c>
-      <c r="H199" s="2">
-        <v>11.4</v>
-      </c>
-      <c r="I199" s="2">
-        <v>225</v>
-      </c>
-      <c r="J199" s="2">
-        <v>42.75</v>
-      </c>
-      <c r="K199" s="2">
-        <v>267.75</v>
-      </c>
-      <c r="L199" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
-        <v>15413099</v>
-      </c>
-      <c r="B200" s="2">
-        <v>20221037</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D200" s="4">
-        <v>44712</v>
-      </c>
-      <c r="E200" s="2">
-        <v>0</v>
-      </c>
-      <c r="F200" s="2">
-        <v>0</v>
-      </c>
-      <c r="G200" s="2">
-        <v>2980</v>
-      </c>
-      <c r="H200" s="2">
-        <v>566.20000000000005</v>
-      </c>
-      <c r="I200" s="2">
-        <v>2980</v>
-      </c>
-      <c r="J200" s="2">
-        <v>566.20000000000005</v>
-      </c>
-      <c r="K200" s="2">
-        <v>3546.2</v>
-      </c>
-      <c r="L200" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
-        <v>15413099</v>
-      </c>
-      <c r="B201" s="2">
-        <v>20221038</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D201" s="4">
-        <v>44712</v>
-      </c>
-      <c r="E201" s="2">
-        <v>0</v>
-      </c>
-      <c r="F201" s="2">
-        <v>0</v>
-      </c>
-      <c r="G201" s="2">
-        <v>2850</v>
-      </c>
-      <c r="H201" s="2">
-        <v>541.5</v>
-      </c>
-      <c r="I201" s="2">
-        <v>2850</v>
-      </c>
-      <c r="J201" s="2">
-        <v>541.5</v>
-      </c>
-      <c r="K201" s="2">
-        <v>3391.5</v>
-      </c>
-      <c r="L201" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
-        <v>361307</v>
-      </c>
-      <c r="B202" s="2">
-        <v>20221040</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D202" s="4">
-        <v>44712</v>
-      </c>
-      <c r="E202" s="2">
-        <v>26.5</v>
-      </c>
-      <c r="F202" s="2">
-        <v>5.04</v>
-      </c>
-      <c r="G202" s="2">
-        <v>248</v>
-      </c>
-      <c r="H202" s="2">
-        <v>47.12</v>
-      </c>
-      <c r="I202" s="2">
-        <v>274.5</v>
-      </c>
-      <c r="J202" s="2">
-        <v>52.16</v>
-      </c>
-      <c r="K202" s="2">
-        <v>326.65999999999997</v>
-      </c>
-      <c r="L202" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L202">
-    <sortCondition ref="B2:B202"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>